--- a/STUDIO/trunk/org.openl.rules.demo/src/org.openl.rules.demo.tutorials/Tutorial 3 - More Advanced Decision and Data Tables/Main.xlsx
+++ b/STUDIO/trunk/org.openl.rules.demo/src/org.openl.rules.demo.tutorials/Tutorial 3 - More Advanced Decision and Data Tables/Main.xlsx
@@ -1031,35 +1031,6 @@
     <t>String[]</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">           This step shows the transposed variant of the previous table. Another difference is using RET1Return row before C1 condition row. In decision table matters only the relative order of condition rows(columns) and the relative order of action rows(columns). </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>The order of condition rows(columns) vs. action rows(columns) does not matter.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> If this still does not sound clear, take a look at this formulas:
-      C1,C2,A1,A2 == C1,A1,C2,A2
-      C1,C2,A1,A2 == C1,A1,A2,C2 etc.
-                    On another hand:
-      C1,C2, A1, A2 != C2,C1,A1,A2 
-      C1,C2, A1, A2 != C1,C2,A2,A1</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">           The example below shows another variation of the previous table (in this case the most compact one). This variant is possible because OpenL Tablets automatically determines the orientation of the data cell containing array data.  So arrays can be defined 
                    • horizontally
                    • vertically
@@ -2023,6 +1994,35 @@
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> for individual test runs.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">           This step shows the transposed variant of the previous table. Another difference is using RET1 Return row before C1 condition row. In decision table matters only the relative order of condition rows(columns) and the relative order of action rows(columns). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>The order of condition rows(columns) vs. action rows(columns) does not matter.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> If this still does not sound clear, take a look at this formulas:
+      C1,C2,A1,A2 == C1,A1,C2,A2
+      C1,C2,A1,A2 == C1,A1,A2,C2 etc.
+                    On another hand:
+      C1,C2, A1, A2 != C2,C1,A1,A2 
+      C1,C2, A1, A2 != C1,C2,A2,A1</t>
     </r>
   </si>
 </sst>
@@ -2241,7 +2241,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -2610,6 +2610,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFF4D13E"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2867,9 +2876,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2924,54 +2930,6 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2983,6 +2941,54 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2999,6 +3005,9 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -3009,9 +3018,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF4D13E"/>
       <color rgb="FFFBFCCC"/>
       <color rgb="FFF6DB66"/>
-      <color rgb="FFF4D13E"/>
       <color rgb="FFF9FBB7"/>
     </mruColors>
   </colors>
@@ -3569,7 +3578,7 @@
   <dimension ref="B3:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3582,17 +3591,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="136" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="18"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
       <c r="K3" s="18"/>
     </row>
     <row r="4" spans="2:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.25">
@@ -3633,100 +3642,100 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="17"/>
-      <c r="C8" s="97" t="s">
+      <c r="C8" s="96" t="s">
         <v>178</v>
       </c>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
       <c r="K8" s="17"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="17"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
       <c r="K9" s="17"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="17"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
       <c r="K10" s="17"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="17"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="98"/>
       <c r="K11" s="17"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="17"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="98"/>
       <c r="K12" s="17"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="17"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
       <c r="K13" s="17"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="17"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
       <c r="K14" s="17"/>
     </row>
     <row r="15" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="17"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="100"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
       <c r="K15" s="17"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -3779,100 +3788,100 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="17"/>
-      <c r="C20" s="95" t="s">
+      <c r="C20" s="94" t="s">
         <v>180</v>
       </c>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
       <c r="K20" s="17"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="17"/>
-      <c r="C21" s="101" t="s">
+      <c r="C21" s="100" t="s">
         <v>182</v>
       </c>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="101"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="100"/>
       <c r="K21" s="17"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="17"/>
-      <c r="C22" s="96" t="s">
+      <c r="C22" s="95" t="s">
         <v>138</v>
       </c>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="95"/>
       <c r="K22" s="17"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="17"/>
-      <c r="C23" s="96" t="s">
+      <c r="C23" s="95" t="s">
         <v>179</v>
       </c>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="95"/>
       <c r="K23" s="17"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="17"/>
-      <c r="C24" s="101" t="s">
-        <v>237</v>
-      </c>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
+      <c r="C24" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
       <c r="K24" s="17"/>
     </row>
     <row r="25" spans="2:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="47"/>
-      <c r="C25" s="101" t="s">
-        <v>235</v>
-      </c>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="101"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="101"/>
+      <c r="C25" s="100" t="s">
+        <v>234</v>
+      </c>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="100"/>
       <c r="K25" s="47"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="17"/>
-      <c r="C26" s="94" t="s">
-        <v>213</v>
-      </c>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="94"/>
+      <c r="C26" s="93" t="s">
+        <v>212</v>
+      </c>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="93"/>
       <c r="K26" s="17"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
@@ -3913,7 +3922,6 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B3:I3"/>
     <mergeCell ref="C26:J26"/>
     <mergeCell ref="C20:J20"/>
     <mergeCell ref="C22:J22"/>
@@ -3922,6 +3930,7 @@
     <mergeCell ref="C24:J24"/>
     <mergeCell ref="C21:J21"/>
     <mergeCell ref="C25:J25"/>
+    <mergeCell ref="B3:J3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
@@ -3944,7 +3953,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B3:F79"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C53" sqref="C53:E60"/>
     </sheetView>
   </sheetViews>
@@ -3959,12 +3968,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="101" t="s">
         <v>181</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
       <c r="F3" s="16"/>
     </row>
     <row r="4" spans="2:6" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
@@ -3990,18 +3999,18 @@
     </row>
     <row r="8" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B8" s="17"/>
-      <c r="C8" s="106" t="s">
+      <c r="C8" s="105" t="s">
         <v>180</v>
       </c>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
       <c r="F8" s="17"/>
     </row>
     <row r="9" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="17"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
       <c r="F9" s="17"/>
     </row>
     <row r="10" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
@@ -4020,60 +4029,60 @@
     </row>
     <row r="12" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B12" s="17"/>
-      <c r="C12" s="103" t="s">
-        <v>243</v>
-      </c>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
+      <c r="C12" s="102" t="s">
+        <v>242</v>
+      </c>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
       <c r="F12" s="17"/>
     </row>
     <row r="13" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B13" s="17"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
       <c r="F13" s="17"/>
     </row>
     <row r="14" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B14" s="17"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
       <c r="F14" s="17"/>
     </row>
     <row r="15" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B15" s="17"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
       <c r="F15" s="17"/>
     </row>
     <row r="16" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B16" s="17"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
       <c r="F16" s="17"/>
     </row>
     <row r="17" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B17" s="17"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
       <c r="F17" s="17"/>
     </row>
     <row r="18" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B18" s="17"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
       <c r="F18" s="17"/>
     </row>
     <row r="19" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B19" s="17"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
       <c r="F19" s="17"/>
     </row>
     <row r="20" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
@@ -4092,11 +4101,11 @@
     </row>
     <row r="22" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B22" s="17"/>
-      <c r="C22" s="108" t="s">
-        <v>248</v>
-      </c>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
+      <c r="C22" s="107" t="s">
+        <v>247</v>
+      </c>
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
       <c r="F22" s="17"/>
     </row>
     <row r="23" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -4180,32 +4189,32 @@
     </row>
     <row r="30" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B30" s="17"/>
-      <c r="C30" s="103" t="s">
+      <c r="C30" s="102" t="s">
         <v>183</v>
       </c>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
       <c r="F30" s="17"/>
     </row>
     <row r="31" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B31" s="17"/>
-      <c r="C31" s="104"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
       <c r="F31" s="17"/>
     </row>
     <row r="32" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B32" s="17"/>
-      <c r="C32" s="104"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
       <c r="F32" s="17"/>
     </row>
     <row r="33" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B33" s="17"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
       <c r="F33" s="17"/>
     </row>
     <row r="34" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
@@ -4224,11 +4233,11 @@
     </row>
     <row r="36" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B36" s="17"/>
-      <c r="C36" s="108" t="s">
-        <v>249</v>
-      </c>
-      <c r="D36" s="108"/>
-      <c r="E36" s="108"/>
+      <c r="C36" s="107" t="s">
+        <v>248</v>
+      </c>
+      <c r="D36" s="107"/>
+      <c r="E36" s="107"/>
       <c r="F36" s="17"/>
     </row>
     <row r="37" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
@@ -4236,10 +4245,10 @@
       <c r="C37" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D37" s="111" t="s">
+      <c r="D37" s="110" t="s">
         <v>128</v>
       </c>
-      <c r="E37" s="111"/>
+      <c r="E37" s="110"/>
       <c r="F37" s="17"/>
     </row>
     <row r="38" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
@@ -4247,10 +4256,10 @@
       <c r="C38" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D38" s="111" t="s">
+      <c r="D38" s="110" t="s">
         <v>186</v>
       </c>
-      <c r="E38" s="111"/>
+      <c r="E38" s="110"/>
       <c r="F38" s="17"/>
     </row>
     <row r="39" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
@@ -4368,11 +4377,11 @@
     </row>
     <row r="50" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B50" s="17"/>
-      <c r="C50" s="106" t="s">
+      <c r="C50" s="105" t="s">
         <v>190</v>
       </c>
-      <c r="D50" s="106"/>
-      <c r="E50" s="106"/>
+      <c r="D50" s="105"/>
+      <c r="E50" s="105"/>
       <c r="F50" s="19"/>
     </row>
     <row r="51" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
@@ -4391,60 +4400,60 @@
     </row>
     <row r="53" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="17"/>
-      <c r="C53" s="110" t="s">
-        <v>263</v>
-      </c>
-      <c r="D53" s="110"/>
-      <c r="E53" s="110"/>
+      <c r="C53" s="109" t="s">
+        <v>262</v>
+      </c>
+      <c r="D53" s="109"/>
+      <c r="E53" s="109"/>
       <c r="F53" s="20"/>
     </row>
     <row r="54" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B54" s="19"/>
-      <c r="C54" s="104"/>
-      <c r="D54" s="104"/>
-      <c r="E54" s="104"/>
+      <c r="C54" s="103"/>
+      <c r="D54" s="103"/>
+      <c r="E54" s="103"/>
       <c r="F54" s="20"/>
     </row>
     <row r="55" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B55" s="19"/>
-      <c r="C55" s="104"/>
-      <c r="D55" s="104"/>
-      <c r="E55" s="104"/>
+      <c r="C55" s="103"/>
+      <c r="D55" s="103"/>
+      <c r="E55" s="103"/>
       <c r="F55" s="20"/>
     </row>
     <row r="56" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B56" s="19"/>
-      <c r="C56" s="104"/>
-      <c r="D56" s="104"/>
-      <c r="E56" s="104"/>
+      <c r="C56" s="103"/>
+      <c r="D56" s="103"/>
+      <c r="E56" s="103"/>
       <c r="F56" s="20"/>
     </row>
     <row r="57" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B57" s="20"/>
-      <c r="C57" s="104"/>
-      <c r="D57" s="104"/>
-      <c r="E57" s="104"/>
+      <c r="C57" s="103"/>
+      <c r="D57" s="103"/>
+      <c r="E57" s="103"/>
       <c r="F57" s="20"/>
     </row>
     <row r="58" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B58" s="20"/>
-      <c r="C58" s="104"/>
-      <c r="D58" s="104"/>
-      <c r="E58" s="104"/>
+      <c r="C58" s="103"/>
+      <c r="D58" s="103"/>
+      <c r="E58" s="103"/>
       <c r="F58" s="20"/>
     </row>
     <row r="59" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B59" s="19"/>
-      <c r="C59" s="104"/>
-      <c r="D59" s="104"/>
-      <c r="E59" s="104"/>
+      <c r="C59" s="103"/>
+      <c r="D59" s="103"/>
+      <c r="E59" s="103"/>
       <c r="F59" s="20"/>
     </row>
     <row r="60" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B60" s="19"/>
-      <c r="C60" s="105"/>
-      <c r="D60" s="105"/>
-      <c r="E60" s="105"/>
+      <c r="C60" s="104"/>
+      <c r="D60" s="104"/>
+      <c r="E60" s="104"/>
       <c r="F60" s="20"/>
     </row>
     <row r="61" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
@@ -4463,11 +4472,11 @@
     </row>
     <row r="63" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B63" s="17"/>
-      <c r="C63" s="109" t="s">
-        <v>245</v>
-      </c>
-      <c r="D63" s="109"/>
-      <c r="E63" s="109"/>
+      <c r="C63" s="108" t="s">
+        <v>244</v>
+      </c>
+      <c r="D63" s="108"/>
+      <c r="E63" s="108"/>
       <c r="F63" s="17"/>
     </row>
     <row r="64" spans="2:6" ht="13.5" x14ac:dyDescent="0.2">
@@ -4564,25 +4573,25 @@
     </row>
     <row r="72" spans="2:6" s="43" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B72" s="47"/>
-      <c r="C72" s="103" t="s">
-        <v>212</v>
-      </c>
-      <c r="D72" s="103"/>
-      <c r="E72" s="103"/>
+      <c r="C72" s="102" t="s">
+        <v>211</v>
+      </c>
+      <c r="D72" s="102"/>
+      <c r="E72" s="102"/>
       <c r="F72" s="47"/>
     </row>
     <row r="73" spans="2:6" s="43" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B73" s="47"/>
-      <c r="C73" s="104"/>
-      <c r="D73" s="104"/>
-      <c r="E73" s="104"/>
+      <c r="C73" s="103"/>
+      <c r="D73" s="103"/>
+      <c r="E73" s="103"/>
       <c r="F73" s="47"/>
     </row>
     <row r="74" spans="2:6" s="43" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B74" s="47"/>
-      <c r="C74" s="105"/>
-      <c r="D74" s="105"/>
-      <c r="E74" s="105"/>
+      <c r="C74" s="104"/>
+      <c r="D74" s="104"/>
+      <c r="E74" s="104"/>
       <c r="F74" s="47"/>
     </row>
     <row r="75" spans="2:6" s="43" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
@@ -4654,8 +4663,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B3:BF165"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="D153" sqref="D153:E153"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4803,25 +4812,25 @@
     </row>
     <row r="8" spans="2:58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="38"/>
-      <c r="C8" s="106" t="s">
+      <c r="C8" s="105" t="s">
         <v>138</v>
       </c>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106"/>
-      <c r="Q8" s="106"/>
-      <c r="R8" s="106"/>
-      <c r="S8" s="106"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="105"/>
       <c r="T8" s="42"/>
       <c r="U8" s="42"/>
       <c r="V8" s="42"/>
@@ -4864,23 +4873,23 @@
     </row>
     <row r="9" spans="2:58" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="38"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
-      <c r="N9" s="107"/>
-      <c r="O9" s="107"/>
-      <c r="P9" s="107"/>
-      <c r="Q9" s="107"/>
-      <c r="R9" s="107"/>
-      <c r="S9" s="107"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="106"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="106"/>
+      <c r="Q9" s="106"/>
+      <c r="R9" s="106"/>
+      <c r="S9" s="106"/>
       <c r="T9" s="42"/>
       <c r="U9" s="42"/>
       <c r="V9" s="42"/>
@@ -5041,25 +5050,25 @@
     </row>
     <row r="12" spans="2:58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="42"/>
-      <c r="C12" s="110" t="s">
-        <v>244</v>
-      </c>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="110"/>
-      <c r="N12" s="110"/>
-      <c r="O12" s="110"/>
-      <c r="P12" s="110"/>
-      <c r="Q12" s="110"/>
-      <c r="R12" s="110"/>
-      <c r="S12" s="110"/>
+      <c r="C12" s="109" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="109"/>
+      <c r="P12" s="109"/>
+      <c r="Q12" s="109"/>
+      <c r="R12" s="109"/>
+      <c r="S12" s="109"/>
       <c r="T12" s="42"/>
       <c r="U12" s="42"/>
       <c r="V12" s="42"/>
@@ -5102,23 +5111,23 @@
     </row>
     <row r="13" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B13" s="42"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="104"/>
-      <c r="M13" s="104"/>
-      <c r="N13" s="104"/>
-      <c r="O13" s="104"/>
-      <c r="P13" s="104"/>
-      <c r="Q13" s="104"/>
-      <c r="R13" s="104"/>
-      <c r="S13" s="104"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="103"/>
+      <c r="R13" s="103"/>
+      <c r="S13" s="103"/>
       <c r="T13" s="42"/>
       <c r="U13" s="42"/>
       <c r="V13" s="42"/>
@@ -5161,23 +5170,23 @@
     </row>
     <row r="14" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B14" s="42"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="104"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="104"/>
-      <c r="P14" s="104"/>
-      <c r="Q14" s="104"/>
-      <c r="R14" s="104"/>
-      <c r="S14" s="104"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="103"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="103"/>
+      <c r="R14" s="103"/>
+      <c r="S14" s="103"/>
       <c r="T14" s="42"/>
       <c r="U14" s="42"/>
       <c r="V14" s="42"/>
@@ -5220,23 +5229,23 @@
     </row>
     <row r="15" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B15" s="42"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="104"/>
-      <c r="M15" s="104"/>
-      <c r="N15" s="104"/>
-      <c r="O15" s="104"/>
-      <c r="P15" s="104"/>
-      <c r="Q15" s="104"/>
-      <c r="R15" s="104"/>
-      <c r="S15" s="104"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="103"/>
+      <c r="Q15" s="103"/>
+      <c r="R15" s="103"/>
+      <c r="S15" s="103"/>
       <c r="T15" s="42"/>
       <c r="U15" s="42"/>
       <c r="V15" s="42"/>
@@ -5279,23 +5288,23 @@
     </row>
     <row r="16" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B16" s="42"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="104"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="104"/>
-      <c r="M16" s="104"/>
-      <c r="N16" s="104"/>
-      <c r="O16" s="104"/>
-      <c r="P16" s="104"/>
-      <c r="Q16" s="104"/>
-      <c r="R16" s="104"/>
-      <c r="S16" s="104"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="103"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="103"/>
+      <c r="Q16" s="103"/>
+      <c r="R16" s="103"/>
+      <c r="S16" s="103"/>
       <c r="T16" s="42"/>
       <c r="U16" s="42"/>
       <c r="V16" s="42"/>
@@ -5338,23 +5347,23 @@
     </row>
     <row r="17" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B17" s="42"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="104"/>
-      <c r="M17" s="104"/>
-      <c r="N17" s="104"/>
-      <c r="O17" s="104"/>
-      <c r="P17" s="104"/>
-      <c r="Q17" s="104"/>
-      <c r="R17" s="104"/>
-      <c r="S17" s="104"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="103"/>
+      <c r="N17" s="103"/>
+      <c r="O17" s="103"/>
+      <c r="P17" s="103"/>
+      <c r="Q17" s="103"/>
+      <c r="R17" s="103"/>
+      <c r="S17" s="103"/>
       <c r="T17" s="42"/>
       <c r="U17" s="42"/>
       <c r="V17" s="42"/>
@@ -5397,23 +5406,23 @@
     </row>
     <row r="18" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B18" s="42"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="104"/>
-      <c r="L18" s="104"/>
-      <c r="M18" s="104"/>
-      <c r="N18" s="104"/>
-      <c r="O18" s="104"/>
-      <c r="P18" s="104"/>
-      <c r="Q18" s="104"/>
-      <c r="R18" s="104"/>
-      <c r="S18" s="104"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="103"/>
+      <c r="N18" s="103"/>
+      <c r="O18" s="103"/>
+      <c r="P18" s="103"/>
+      <c r="Q18" s="103"/>
+      <c r="R18" s="103"/>
+      <c r="S18" s="103"/>
       <c r="T18" s="42"/>
       <c r="U18" s="42"/>
       <c r="V18" s="42"/>
@@ -5456,23 +5465,23 @@
     </row>
     <row r="19" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B19" s="42"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="105"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="105"/>
-      <c r="L19" s="105"/>
-      <c r="M19" s="105"/>
-      <c r="N19" s="105"/>
-      <c r="O19" s="105"/>
-      <c r="P19" s="105"/>
-      <c r="Q19" s="105"/>
-      <c r="R19" s="105"/>
-      <c r="S19" s="105"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="104"/>
+      <c r="M19" s="104"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="104"/>
+      <c r="P19" s="104"/>
+      <c r="Q19" s="104"/>
+      <c r="R19" s="104"/>
+      <c r="S19" s="104"/>
       <c r="T19" s="42"/>
       <c r="U19" s="42"/>
       <c r="V19" s="42"/>
@@ -5633,11 +5642,11 @@
     </row>
     <row r="22" spans="2:58" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B22" s="42"/>
-      <c r="C22" s="108" t="s">
-        <v>246</v>
-      </c>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
+      <c r="C22" s="107" t="s">
+        <v>245</v>
+      </c>
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
       <c r="H22" s="42"/>
@@ -5946,13 +5955,13 @@
     </row>
     <row r="27" spans="2:58" ht="14.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B27" s="42"/>
-      <c r="C27" s="112" t="s">
+      <c r="C27" s="129" t="s">
         <v>195</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="114" t="s">
+      <c r="E27" s="130" t="s">
         <v>132</v>
       </c>
       <c r="F27" s="42"/>
@@ -6011,11 +6020,11 @@
     </row>
     <row r="28" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B28" s="42"/>
-      <c r="C28" s="113"/>
+      <c r="C28" s="125"/>
       <c r="D28" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="115"/>
+      <c r="E28" s="126"/>
       <c r="F28" s="42"/>
       <c r="G28" s="42"/>
       <c r="H28" s="42"/>
@@ -6072,11 +6081,11 @@
     </row>
     <row r="29" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B29" s="42"/>
-      <c r="C29" s="113"/>
+      <c r="C29" s="125"/>
       <c r="D29" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="115"/>
+      <c r="E29" s="126"/>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
       <c r="H29" s="42"/>
@@ -6133,11 +6142,11 @@
     </row>
     <row r="30" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B30" s="42"/>
-      <c r="C30" s="113"/>
+      <c r="C30" s="125"/>
       <c r="D30" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="115"/>
+      <c r="E30" s="126"/>
       <c r="F30" s="42"/>
       <c r="G30" s="42"/>
       <c r="H30" s="42"/>
@@ -6194,11 +6203,11 @@
     </row>
     <row r="31" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B31" s="42"/>
-      <c r="C31" s="113"/>
+      <c r="C31" s="125"/>
       <c r="D31" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="115"/>
+      <c r="E31" s="126"/>
       <c r="F31" s="42"/>
       <c r="G31" s="42"/>
       <c r="H31" s="42"/>
@@ -6255,11 +6264,11 @@
     </row>
     <row r="32" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B32" s="42"/>
-      <c r="C32" s="113"/>
+      <c r="C32" s="125"/>
       <c r="D32" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="115"/>
+      <c r="E32" s="126"/>
       <c r="F32" s="42"/>
       <c r="G32" s="42"/>
       <c r="H32" s="42"/>
@@ -6316,11 +6325,11 @@
     </row>
     <row r="33" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B33" s="42"/>
-      <c r="C33" s="113"/>
+      <c r="C33" s="125"/>
       <c r="D33" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="E33" s="115"/>
+      <c r="E33" s="126"/>
       <c r="F33" s="42"/>
       <c r="G33" s="42"/>
       <c r="H33" s="42"/>
@@ -6377,11 +6386,11 @@
     </row>
     <row r="34" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B34" s="42"/>
-      <c r="C34" s="113"/>
+      <c r="C34" s="125"/>
       <c r="D34" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="115"/>
+      <c r="E34" s="126"/>
       <c r="F34" s="42"/>
       <c r="G34" s="42"/>
       <c r="H34" s="42"/>
@@ -6438,11 +6447,11 @@
     </row>
     <row r="35" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B35" s="42"/>
-      <c r="C35" s="113"/>
+      <c r="C35" s="125"/>
       <c r="D35" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="E35" s="115"/>
+      <c r="E35" s="126"/>
       <c r="F35" s="42"/>
       <c r="G35" s="42"/>
       <c r="H35" s="42"/>
@@ -6499,11 +6508,11 @@
     </row>
     <row r="36" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B36" s="42"/>
-      <c r="C36" s="113"/>
+      <c r="C36" s="125"/>
       <c r="D36" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="E36" s="115"/>
+      <c r="E36" s="126"/>
       <c r="F36" s="42"/>
       <c r="G36" s="42"/>
       <c r="H36" s="42"/>
@@ -6560,11 +6569,11 @@
     </row>
     <row r="37" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B37" s="42"/>
-      <c r="C37" s="113"/>
+      <c r="C37" s="125"/>
       <c r="D37" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E37" s="115"/>
+      <c r="E37" s="126"/>
       <c r="F37" s="42"/>
       <c r="G37" s="42"/>
       <c r="H37" s="42"/>
@@ -6621,11 +6630,11 @@
     </row>
     <row r="38" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B38" s="42"/>
-      <c r="C38" s="113"/>
+      <c r="C38" s="125"/>
       <c r="D38" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="E38" s="115"/>
+      <c r="E38" s="126"/>
       <c r="F38" s="42"/>
       <c r="G38" s="42"/>
       <c r="H38" s="42"/>
@@ -6682,13 +6691,13 @@
     </row>
     <row r="39" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B39" s="42"/>
-      <c r="C39" s="116" t="s">
+      <c r="C39" s="124" t="s">
         <v>196</v>
       </c>
       <c r="D39" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="115" t="s">
+      <c r="E39" s="126" t="s">
         <v>133</v>
       </c>
       <c r="F39" s="42"/>
@@ -6747,11 +6756,11 @@
     </row>
     <row r="40" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B40" s="42"/>
-      <c r="C40" s="113"/>
+      <c r="C40" s="125"/>
       <c r="D40" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="115"/>
+      <c r="E40" s="126"/>
       <c r="F40" s="42"/>
       <c r="G40" s="42"/>
       <c r="H40" s="42"/>
@@ -6808,11 +6817,11 @@
     </row>
     <row r="41" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B41" s="42"/>
-      <c r="C41" s="113"/>
+      <c r="C41" s="125"/>
       <c r="D41" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="115"/>
+      <c r="E41" s="126"/>
       <c r="F41" s="42"/>
       <c r="G41" s="42"/>
       <c r="H41" s="42"/>
@@ -6869,11 +6878,11 @@
     </row>
     <row r="42" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B42" s="42"/>
-      <c r="C42" s="113"/>
+      <c r="C42" s="125"/>
       <c r="D42" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="115"/>
+      <c r="E42" s="126"/>
       <c r="F42" s="42"/>
       <c r="G42" s="42"/>
       <c r="H42" s="42"/>
@@ -6930,11 +6939,11 @@
     </row>
     <row r="43" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B43" s="42"/>
-      <c r="C43" s="113"/>
+      <c r="C43" s="125"/>
       <c r="D43" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E43" s="115"/>
+      <c r="E43" s="126"/>
       <c r="F43" s="42"/>
       <c r="G43" s="42"/>
       <c r="H43" s="42"/>
@@ -6991,11 +7000,11 @@
     </row>
     <row r="44" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B44" s="42"/>
-      <c r="C44" s="113"/>
+      <c r="C44" s="125"/>
       <c r="D44" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="115"/>
+      <c r="E44" s="126"/>
       <c r="F44" s="42"/>
       <c r="G44" s="42"/>
       <c r="H44" s="42"/>
@@ -7052,11 +7061,11 @@
     </row>
     <row r="45" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B45" s="42"/>
-      <c r="C45" s="113"/>
+      <c r="C45" s="125"/>
       <c r="D45" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E45" s="115"/>
+      <c r="E45" s="126"/>
       <c r="F45" s="42"/>
       <c r="G45" s="42"/>
       <c r="H45" s="42"/>
@@ -7113,11 +7122,11 @@
     </row>
     <row r="46" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B46" s="42"/>
-      <c r="C46" s="113"/>
+      <c r="C46" s="125"/>
       <c r="D46" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E46" s="115"/>
+      <c r="E46" s="126"/>
       <c r="F46" s="42"/>
       <c r="G46" s="42"/>
       <c r="H46" s="42"/>
@@ -7174,11 +7183,11 @@
     </row>
     <row r="47" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B47" s="42"/>
-      <c r="C47" s="113"/>
+      <c r="C47" s="125"/>
       <c r="D47" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="E47" s="115"/>
+      <c r="E47" s="126"/>
       <c r="F47" s="42"/>
       <c r="G47" s="42"/>
       <c r="H47" s="42"/>
@@ -7235,11 +7244,11 @@
     </row>
     <row r="48" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B48" s="42"/>
-      <c r="C48" s="113"/>
+      <c r="C48" s="125"/>
       <c r="D48" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="E48" s="115"/>
+      <c r="E48" s="126"/>
       <c r="F48" s="42"/>
       <c r="G48" s="42"/>
       <c r="H48" s="42"/>
@@ -7296,11 +7305,11 @@
     </row>
     <row r="49" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B49" s="42"/>
-      <c r="C49" s="113"/>
+      <c r="C49" s="125"/>
       <c r="D49" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="E49" s="115"/>
+      <c r="E49" s="126"/>
       <c r="F49" s="42"/>
       <c r="G49" s="42"/>
       <c r="H49" s="42"/>
@@ -7357,11 +7366,11 @@
     </row>
     <row r="50" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B50" s="42"/>
-      <c r="C50" s="113"/>
+      <c r="C50" s="125"/>
       <c r="D50" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="E50" s="115"/>
+      <c r="E50" s="126"/>
       <c r="F50" s="42"/>
       <c r="G50" s="42"/>
       <c r="H50" s="42"/>
@@ -7418,11 +7427,11 @@
     </row>
     <row r="51" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B51" s="42"/>
-      <c r="C51" s="113"/>
+      <c r="C51" s="125"/>
       <c r="D51" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="E51" s="115"/>
+      <c r="E51" s="126"/>
       <c r="F51" s="42"/>
       <c r="G51" s="42"/>
       <c r="H51" s="42"/>
@@ -7479,11 +7488,11 @@
     </row>
     <row r="52" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B52" s="42"/>
-      <c r="C52" s="113"/>
+      <c r="C52" s="125"/>
       <c r="D52" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="E52" s="115"/>
+      <c r="E52" s="126"/>
       <c r="F52" s="42"/>
       <c r="G52" s="42"/>
       <c r="H52" s="42"/>
@@ -7540,13 +7549,13 @@
     </row>
     <row r="53" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B53" s="42"/>
-      <c r="C53" s="116" t="s">
+      <c r="C53" s="124" t="s">
         <v>197</v>
       </c>
       <c r="D53" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E53" s="115" t="s">
+      <c r="E53" s="126" t="s">
         <v>134</v>
       </c>
       <c r="F53" s="42"/>
@@ -7605,11 +7614,11 @@
     </row>
     <row r="54" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B54" s="42"/>
-      <c r="C54" s="113"/>
+      <c r="C54" s="125"/>
       <c r="D54" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E54" s="115"/>
+      <c r="E54" s="126"/>
       <c r="F54" s="42"/>
       <c r="G54" s="42"/>
       <c r="H54" s="42"/>
@@ -7666,11 +7675,11 @@
     </row>
     <row r="55" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B55" s="42"/>
-      <c r="C55" s="113"/>
+      <c r="C55" s="125"/>
       <c r="D55" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E55" s="115"/>
+      <c r="E55" s="126"/>
       <c r="F55" s="42"/>
       <c r="G55" s="42"/>
       <c r="H55" s="42"/>
@@ -7727,11 +7736,11 @@
     </row>
     <row r="56" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B56" s="42"/>
-      <c r="C56" s="113"/>
+      <c r="C56" s="125"/>
       <c r="D56" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E56" s="115"/>
+      <c r="E56" s="126"/>
       <c r="F56" s="42"/>
       <c r="G56" s="42"/>
       <c r="H56" s="42"/>
@@ -7788,11 +7797,11 @@
     </row>
     <row r="57" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B57" s="42"/>
-      <c r="C57" s="113"/>
+      <c r="C57" s="125"/>
       <c r="D57" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E57" s="115"/>
+      <c r="E57" s="126"/>
       <c r="F57" s="42"/>
       <c r="G57" s="42"/>
       <c r="H57" s="42"/>
@@ -7849,11 +7858,11 @@
     </row>
     <row r="58" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B58" s="42"/>
-      <c r="C58" s="113"/>
+      <c r="C58" s="125"/>
       <c r="D58" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E58" s="115"/>
+      <c r="E58" s="126"/>
       <c r="F58" s="42"/>
       <c r="G58" s="42"/>
       <c r="H58" s="42"/>
@@ -7910,11 +7919,11 @@
     </row>
     <row r="59" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B59" s="42"/>
-      <c r="C59" s="113"/>
+      <c r="C59" s="125"/>
       <c r="D59" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="E59" s="115"/>
+      <c r="E59" s="126"/>
       <c r="F59" s="42"/>
       <c r="G59" s="42"/>
       <c r="H59" s="42"/>
@@ -7971,11 +7980,11 @@
     </row>
     <row r="60" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B60" s="42"/>
-      <c r="C60" s="113"/>
+      <c r="C60" s="125"/>
       <c r="D60" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="E60" s="115"/>
+      <c r="E60" s="126"/>
       <c r="F60" s="42"/>
       <c r="G60" s="42"/>
       <c r="H60" s="42"/>
@@ -8032,11 +8041,11 @@
     </row>
     <row r="61" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B61" s="42"/>
-      <c r="C61" s="113"/>
+      <c r="C61" s="125"/>
       <c r="D61" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="E61" s="115"/>
+      <c r="E61" s="126"/>
       <c r="F61" s="42"/>
       <c r="G61" s="42"/>
       <c r="H61" s="42"/>
@@ -8093,11 +8102,11 @@
     </row>
     <row r="62" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B62" s="42"/>
-      <c r="C62" s="113"/>
+      <c r="C62" s="125"/>
       <c r="D62" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E62" s="115"/>
+      <c r="E62" s="126"/>
       <c r="F62" s="42"/>
       <c r="G62" s="42"/>
       <c r="H62" s="42"/>
@@ -8154,11 +8163,11 @@
     </row>
     <row r="63" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B63" s="42"/>
-      <c r="C63" s="113"/>
+      <c r="C63" s="125"/>
       <c r="D63" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="E63" s="115"/>
+      <c r="E63" s="126"/>
       <c r="F63" s="42"/>
       <c r="G63" s="42"/>
       <c r="H63" s="42"/>
@@ -8215,11 +8224,11 @@
     </row>
     <row r="64" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B64" s="42"/>
-      <c r="C64" s="113"/>
+      <c r="C64" s="125"/>
       <c r="D64" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="E64" s="115"/>
+      <c r="E64" s="126"/>
       <c r="F64" s="42"/>
       <c r="G64" s="42"/>
       <c r="H64" s="42"/>
@@ -8276,13 +8285,13 @@
     </row>
     <row r="65" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B65" s="42"/>
-      <c r="C65" s="116" t="s">
+      <c r="C65" s="124" t="s">
         <v>198</v>
       </c>
       <c r="D65" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="115" t="s">
+      <c r="E65" s="126" t="s">
         <v>135</v>
       </c>
       <c r="F65" s="42"/>
@@ -8341,11 +8350,11 @@
     </row>
     <row r="66" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B66" s="42"/>
-      <c r="C66" s="113"/>
+      <c r="C66" s="125"/>
       <c r="D66" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E66" s="115"/>
+      <c r="E66" s="126"/>
       <c r="F66" s="42"/>
       <c r="G66" s="42"/>
       <c r="H66" s="42"/>
@@ -8402,11 +8411,11 @@
     </row>
     <row r="67" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B67" s="42"/>
-      <c r="C67" s="113"/>
+      <c r="C67" s="125"/>
       <c r="D67" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E67" s="115"/>
+      <c r="E67" s="126"/>
       <c r="F67" s="42"/>
       <c r="G67" s="42"/>
       <c r="H67" s="42"/>
@@ -8463,11 +8472,11 @@
     </row>
     <row r="68" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B68" s="42"/>
-      <c r="C68" s="113"/>
+      <c r="C68" s="125"/>
       <c r="D68" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E68" s="115"/>
+      <c r="E68" s="126"/>
       <c r="F68" s="42"/>
       <c r="G68" s="42"/>
       <c r="H68" s="42"/>
@@ -8524,11 +8533,11 @@
     </row>
     <row r="69" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B69" s="42"/>
-      <c r="C69" s="113"/>
+      <c r="C69" s="125"/>
       <c r="D69" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E69" s="115"/>
+      <c r="E69" s="126"/>
       <c r="F69" s="42"/>
       <c r="G69" s="42"/>
       <c r="H69" s="42"/>
@@ -8585,11 +8594,11 @@
     </row>
     <row r="70" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B70" s="42"/>
-      <c r="C70" s="113"/>
+      <c r="C70" s="125"/>
       <c r="D70" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E70" s="115"/>
+      <c r="E70" s="126"/>
       <c r="F70" s="42"/>
       <c r="G70" s="42"/>
       <c r="H70" s="42"/>
@@ -8646,11 +8655,11 @@
     </row>
     <row r="71" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B71" s="42"/>
-      <c r="C71" s="113"/>
+      <c r="C71" s="125"/>
       <c r="D71" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E71" s="115"/>
+      <c r="E71" s="126"/>
       <c r="F71" s="42"/>
       <c r="G71" s="42"/>
       <c r="H71" s="42"/>
@@ -8707,11 +8716,11 @@
     </row>
     <row r="72" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B72" s="42"/>
-      <c r="C72" s="113"/>
+      <c r="C72" s="125"/>
       <c r="D72" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E72" s="115"/>
+      <c r="E72" s="126"/>
       <c r="F72" s="42"/>
       <c r="G72" s="42"/>
       <c r="H72" s="42"/>
@@ -8768,11 +8777,11 @@
     </row>
     <row r="73" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B73" s="42"/>
-      <c r="C73" s="113"/>
+      <c r="C73" s="125"/>
       <c r="D73" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E73" s="115"/>
+      <c r="E73" s="126"/>
       <c r="F73" s="42"/>
       <c r="G73" s="42"/>
       <c r="H73" s="42"/>
@@ -8829,11 +8838,11 @@
     </row>
     <row r="74" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B74" s="42"/>
-      <c r="C74" s="113"/>
+      <c r="C74" s="125"/>
       <c r="D74" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="E74" s="115"/>
+      <c r="E74" s="126"/>
       <c r="F74" s="42"/>
       <c r="G74" s="42"/>
       <c r="H74" s="42"/>
@@ -8890,11 +8899,11 @@
     </row>
     <row r="75" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B75" s="42"/>
-      <c r="C75" s="113"/>
+      <c r="C75" s="125"/>
       <c r="D75" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="E75" s="115"/>
+      <c r="E75" s="126"/>
       <c r="F75" s="42"/>
       <c r="G75" s="42"/>
       <c r="H75" s="42"/>
@@ -8951,11 +8960,11 @@
     </row>
     <row r="76" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B76" s="42"/>
-      <c r="C76" s="113"/>
+      <c r="C76" s="125"/>
       <c r="D76" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E76" s="115"/>
+      <c r="E76" s="126"/>
       <c r="F76" s="42"/>
       <c r="G76" s="42"/>
       <c r="H76" s="42"/>
@@ -9012,11 +9021,11 @@
     </row>
     <row r="77" spans="2:58" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B77" s="42"/>
-      <c r="C77" s="117"/>
+      <c r="C77" s="127"/>
       <c r="D77" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="E77" s="118"/>
+      <c r="E77" s="128"/>
       <c r="F77" s="42"/>
       <c r="G77" s="42"/>
       <c r="H77" s="42"/>
@@ -9250,25 +9259,25 @@
     </row>
     <row r="81" spans="2:58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="42"/>
-      <c r="C81" s="124" t="s">
+      <c r="C81" s="119" t="s">
         <v>194</v>
       </c>
-      <c r="D81" s="124"/>
-      <c r="E81" s="124"/>
-      <c r="F81" s="124"/>
-      <c r="G81" s="124"/>
-      <c r="H81" s="124"/>
-      <c r="I81" s="124"/>
-      <c r="J81" s="124"/>
-      <c r="K81" s="124"/>
-      <c r="L81" s="124"/>
-      <c r="M81" s="124"/>
-      <c r="N81" s="124"/>
-      <c r="O81" s="124"/>
-      <c r="P81" s="124"/>
-      <c r="Q81" s="124"/>
-      <c r="R81" s="124"/>
-      <c r="S81" s="124"/>
+      <c r="D81" s="119"/>
+      <c r="E81" s="119"/>
+      <c r="F81" s="119"/>
+      <c r="G81" s="119"/>
+      <c r="H81" s="119"/>
+      <c r="I81" s="119"/>
+      <c r="J81" s="119"/>
+      <c r="K81" s="119"/>
+      <c r="L81" s="119"/>
+      <c r="M81" s="119"/>
+      <c r="N81" s="119"/>
+      <c r="O81" s="119"/>
+      <c r="P81" s="119"/>
+      <c r="Q81" s="119"/>
+      <c r="R81" s="119"/>
+      <c r="S81" s="119"/>
       <c r="T81" s="42"/>
       <c r="U81" s="42"/>
       <c r="V81" s="42"/>
@@ -9311,23 +9320,23 @@
     </row>
     <row r="82" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B82" s="42"/>
-      <c r="C82" s="125"/>
-      <c r="D82" s="125"/>
-      <c r="E82" s="125"/>
-      <c r="F82" s="125"/>
-      <c r="G82" s="125"/>
-      <c r="H82" s="125"/>
-      <c r="I82" s="125"/>
-      <c r="J82" s="125"/>
-      <c r="K82" s="125"/>
-      <c r="L82" s="125"/>
-      <c r="M82" s="125"/>
-      <c r="N82" s="125"/>
-      <c r="O82" s="125"/>
-      <c r="P82" s="125"/>
-      <c r="Q82" s="125"/>
-      <c r="R82" s="125"/>
-      <c r="S82" s="125"/>
+      <c r="C82" s="120"/>
+      <c r="D82" s="120"/>
+      <c r="E82" s="120"/>
+      <c r="F82" s="120"/>
+      <c r="G82" s="120"/>
+      <c r="H82" s="120"/>
+      <c r="I82" s="120"/>
+      <c r="J82" s="120"/>
+      <c r="K82" s="120"/>
+      <c r="L82" s="120"/>
+      <c r="M82" s="120"/>
+      <c r="N82" s="120"/>
+      <c r="O82" s="120"/>
+      <c r="P82" s="120"/>
+      <c r="Q82" s="120"/>
+      <c r="R82" s="120"/>
+      <c r="S82" s="120"/>
       <c r="T82" s="42"/>
       <c r="U82" s="42"/>
       <c r="V82" s="42"/>
@@ -9489,10 +9498,10 @@
     <row r="85" spans="2:58" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B85" s="47"/>
       <c r="C85" s="47"/>
-      <c r="D85" s="123" t="s">
-        <v>247</v>
-      </c>
-      <c r="E85" s="123"/>
+      <c r="D85" s="115" t="s">
+        <v>246</v>
+      </c>
+      <c r="E85" s="115"/>
       <c r="F85" s="47"/>
       <c r="G85" s="47"/>
       <c r="H85" s="47"/>
@@ -10222,25 +10231,25 @@
     </row>
     <row r="97" spans="2:58" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B97" s="42"/>
-      <c r="C97" s="119" t="s">
+      <c r="C97" s="118" t="s">
         <v>140</v>
       </c>
-      <c r="D97" s="119"/>
-      <c r="E97" s="119"/>
-      <c r="F97" s="119"/>
-      <c r="G97" s="119"/>
-      <c r="H97" s="119"/>
-      <c r="I97" s="119"/>
-      <c r="J97" s="119"/>
-      <c r="K97" s="119"/>
-      <c r="L97" s="119"/>
-      <c r="M97" s="119"/>
-      <c r="N97" s="119"/>
-      <c r="O97" s="119"/>
-      <c r="P97" s="119"/>
-      <c r="Q97" s="119"/>
-      <c r="R97" s="119"/>
-      <c r="S97" s="119"/>
+      <c r="D97" s="118"/>
+      <c r="E97" s="118"/>
+      <c r="F97" s="118"/>
+      <c r="G97" s="118"/>
+      <c r="H97" s="118"/>
+      <c r="I97" s="118"/>
+      <c r="J97" s="118"/>
+      <c r="K97" s="118"/>
+      <c r="L97" s="118"/>
+      <c r="M97" s="118"/>
+      <c r="N97" s="118"/>
+      <c r="O97" s="118"/>
+      <c r="P97" s="118"/>
+      <c r="Q97" s="118"/>
+      <c r="R97" s="118"/>
+      <c r="S97" s="118"/>
       <c r="T97" s="42"/>
       <c r="U97" s="42"/>
       <c r="V97" s="42"/>
@@ -10401,25 +10410,25 @@
     </row>
     <row r="100" spans="2:58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="42"/>
-      <c r="C100" s="110" t="s">
-        <v>200</v>
-      </c>
-      <c r="D100" s="110"/>
-      <c r="E100" s="110"/>
-      <c r="F100" s="110"/>
-      <c r="G100" s="110"/>
-      <c r="H100" s="110"/>
-      <c r="I100" s="110"/>
-      <c r="J100" s="110"/>
-      <c r="K100" s="110"/>
-      <c r="L100" s="110"/>
-      <c r="M100" s="110"/>
-      <c r="N100" s="110"/>
-      <c r="O100" s="110"/>
-      <c r="P100" s="110"/>
-      <c r="Q100" s="110"/>
-      <c r="R100" s="110"/>
-      <c r="S100" s="110"/>
+      <c r="C100" s="109" t="s">
+        <v>263</v>
+      </c>
+      <c r="D100" s="109"/>
+      <c r="E100" s="109"/>
+      <c r="F100" s="109"/>
+      <c r="G100" s="109"/>
+      <c r="H100" s="109"/>
+      <c r="I100" s="109"/>
+      <c r="J100" s="109"/>
+      <c r="K100" s="109"/>
+      <c r="L100" s="109"/>
+      <c r="M100" s="109"/>
+      <c r="N100" s="109"/>
+      <c r="O100" s="109"/>
+      <c r="P100" s="109"/>
+      <c r="Q100" s="109"/>
+      <c r="R100" s="109"/>
+      <c r="S100" s="109"/>
       <c r="T100" s="42"/>
       <c r="U100" s="42"/>
       <c r="V100" s="42"/>
@@ -10462,23 +10471,23 @@
     </row>
     <row r="101" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B101" s="42"/>
-      <c r="C101" s="104"/>
-      <c r="D101" s="104"/>
-      <c r="E101" s="104"/>
-      <c r="F101" s="104"/>
-      <c r="G101" s="104"/>
-      <c r="H101" s="104"/>
-      <c r="I101" s="104"/>
-      <c r="J101" s="104"/>
-      <c r="K101" s="104"/>
-      <c r="L101" s="104"/>
-      <c r="M101" s="104"/>
-      <c r="N101" s="104"/>
-      <c r="O101" s="104"/>
-      <c r="P101" s="104"/>
-      <c r="Q101" s="104"/>
-      <c r="R101" s="104"/>
-      <c r="S101" s="104"/>
+      <c r="C101" s="103"/>
+      <c r="D101" s="103"/>
+      <c r="E101" s="103"/>
+      <c r="F101" s="103"/>
+      <c r="G101" s="103"/>
+      <c r="H101" s="103"/>
+      <c r="I101" s="103"/>
+      <c r="J101" s="103"/>
+      <c r="K101" s="103"/>
+      <c r="L101" s="103"/>
+      <c r="M101" s="103"/>
+      <c r="N101" s="103"/>
+      <c r="O101" s="103"/>
+      <c r="P101" s="103"/>
+      <c r="Q101" s="103"/>
+      <c r="R101" s="103"/>
+      <c r="S101" s="103"/>
       <c r="T101" s="42"/>
       <c r="U101" s="42"/>
       <c r="V101" s="42"/>
@@ -10521,23 +10530,23 @@
     </row>
     <row r="102" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B102" s="42"/>
-      <c r="C102" s="104"/>
-      <c r="D102" s="104"/>
-      <c r="E102" s="104"/>
-      <c r="F102" s="104"/>
-      <c r="G102" s="104"/>
-      <c r="H102" s="104"/>
-      <c r="I102" s="104"/>
-      <c r="J102" s="104"/>
-      <c r="K102" s="104"/>
-      <c r="L102" s="104"/>
-      <c r="M102" s="104"/>
-      <c r="N102" s="104"/>
-      <c r="O102" s="104"/>
-      <c r="P102" s="104"/>
-      <c r="Q102" s="104"/>
-      <c r="R102" s="104"/>
-      <c r="S102" s="104"/>
+      <c r="C102" s="103"/>
+      <c r="D102" s="103"/>
+      <c r="E102" s="103"/>
+      <c r="F102" s="103"/>
+      <c r="G102" s="103"/>
+      <c r="H102" s="103"/>
+      <c r="I102" s="103"/>
+      <c r="J102" s="103"/>
+      <c r="K102" s="103"/>
+      <c r="L102" s="103"/>
+      <c r="M102" s="103"/>
+      <c r="N102" s="103"/>
+      <c r="O102" s="103"/>
+      <c r="P102" s="103"/>
+      <c r="Q102" s="103"/>
+      <c r="R102" s="103"/>
+      <c r="S102" s="103"/>
       <c r="T102" s="42"/>
       <c r="U102" s="42"/>
       <c r="V102" s="42"/>
@@ -10580,23 +10589,23 @@
     </row>
     <row r="103" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B103" s="42"/>
-      <c r="C103" s="104"/>
-      <c r="D103" s="104"/>
-      <c r="E103" s="104"/>
-      <c r="F103" s="104"/>
-      <c r="G103" s="104"/>
-      <c r="H103" s="104"/>
-      <c r="I103" s="104"/>
-      <c r="J103" s="104"/>
-      <c r="K103" s="104"/>
-      <c r="L103" s="104"/>
-      <c r="M103" s="104"/>
-      <c r="N103" s="104"/>
-      <c r="O103" s="104"/>
-      <c r="P103" s="104"/>
-      <c r="Q103" s="104"/>
-      <c r="R103" s="104"/>
-      <c r="S103" s="104"/>
+      <c r="C103" s="103"/>
+      <c r="D103" s="103"/>
+      <c r="E103" s="103"/>
+      <c r="F103" s="103"/>
+      <c r="G103" s="103"/>
+      <c r="H103" s="103"/>
+      <c r="I103" s="103"/>
+      <c r="J103" s="103"/>
+      <c r="K103" s="103"/>
+      <c r="L103" s="103"/>
+      <c r="M103" s="103"/>
+      <c r="N103" s="103"/>
+      <c r="O103" s="103"/>
+      <c r="P103" s="103"/>
+      <c r="Q103" s="103"/>
+      <c r="R103" s="103"/>
+      <c r="S103" s="103"/>
       <c r="T103" s="42"/>
       <c r="U103" s="42"/>
       <c r="V103" s="42"/>
@@ -10639,23 +10648,23 @@
     </row>
     <row r="104" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B104" s="42"/>
-      <c r="C104" s="104"/>
-      <c r="D104" s="104"/>
-      <c r="E104" s="104"/>
-      <c r="F104" s="104"/>
-      <c r="G104" s="104"/>
-      <c r="H104" s="104"/>
-      <c r="I104" s="104"/>
-      <c r="J104" s="104"/>
-      <c r="K104" s="104"/>
-      <c r="L104" s="104"/>
-      <c r="M104" s="104"/>
-      <c r="N104" s="104"/>
-      <c r="O104" s="104"/>
-      <c r="P104" s="104"/>
-      <c r="Q104" s="104"/>
-      <c r="R104" s="104"/>
-      <c r="S104" s="104"/>
+      <c r="C104" s="103"/>
+      <c r="D104" s="103"/>
+      <c r="E104" s="103"/>
+      <c r="F104" s="103"/>
+      <c r="G104" s="103"/>
+      <c r="H104" s="103"/>
+      <c r="I104" s="103"/>
+      <c r="J104" s="103"/>
+      <c r="K104" s="103"/>
+      <c r="L104" s="103"/>
+      <c r="M104" s="103"/>
+      <c r="N104" s="103"/>
+      <c r="O104" s="103"/>
+      <c r="P104" s="103"/>
+      <c r="Q104" s="103"/>
+      <c r="R104" s="103"/>
+      <c r="S104" s="103"/>
       <c r="T104" s="42"/>
       <c r="U104" s="42"/>
       <c r="V104" s="42"/>
@@ -10698,23 +10707,23 @@
     </row>
     <row r="105" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B105" s="42"/>
-      <c r="C105" s="104"/>
-      <c r="D105" s="104"/>
-      <c r="E105" s="104"/>
-      <c r="F105" s="104"/>
-      <c r="G105" s="104"/>
-      <c r="H105" s="104"/>
-      <c r="I105" s="104"/>
-      <c r="J105" s="104"/>
-      <c r="K105" s="104"/>
-      <c r="L105" s="104"/>
-      <c r="M105" s="104"/>
-      <c r="N105" s="104"/>
-      <c r="O105" s="104"/>
-      <c r="P105" s="104"/>
-      <c r="Q105" s="104"/>
-      <c r="R105" s="104"/>
-      <c r="S105" s="104"/>
+      <c r="C105" s="103"/>
+      <c r="D105" s="103"/>
+      <c r="E105" s="103"/>
+      <c r="F105" s="103"/>
+      <c r="G105" s="103"/>
+      <c r="H105" s="103"/>
+      <c r="I105" s="103"/>
+      <c r="J105" s="103"/>
+      <c r="K105" s="103"/>
+      <c r="L105" s="103"/>
+      <c r="M105" s="103"/>
+      <c r="N105" s="103"/>
+      <c r="O105" s="103"/>
+      <c r="P105" s="103"/>
+      <c r="Q105" s="103"/>
+      <c r="R105" s="103"/>
+      <c r="S105" s="103"/>
       <c r="T105" s="42"/>
       <c r="U105" s="42"/>
       <c r="V105" s="42"/>
@@ -10757,23 +10766,23 @@
     </row>
     <row r="106" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B106" s="42"/>
-      <c r="C106" s="104"/>
-      <c r="D106" s="104"/>
-      <c r="E106" s="104"/>
-      <c r="F106" s="104"/>
-      <c r="G106" s="104"/>
-      <c r="H106" s="104"/>
-      <c r="I106" s="104"/>
-      <c r="J106" s="104"/>
-      <c r="K106" s="104"/>
-      <c r="L106" s="104"/>
-      <c r="M106" s="104"/>
-      <c r="N106" s="104"/>
-      <c r="O106" s="104"/>
-      <c r="P106" s="104"/>
-      <c r="Q106" s="104"/>
-      <c r="R106" s="104"/>
-      <c r="S106" s="104"/>
+      <c r="C106" s="103"/>
+      <c r="D106" s="103"/>
+      <c r="E106" s="103"/>
+      <c r="F106" s="103"/>
+      <c r="G106" s="103"/>
+      <c r="H106" s="103"/>
+      <c r="I106" s="103"/>
+      <c r="J106" s="103"/>
+      <c r="K106" s="103"/>
+      <c r="L106" s="103"/>
+      <c r="M106" s="103"/>
+      <c r="N106" s="103"/>
+      <c r="O106" s="103"/>
+      <c r="P106" s="103"/>
+      <c r="Q106" s="103"/>
+      <c r="R106" s="103"/>
+      <c r="S106" s="103"/>
       <c r="T106" s="42"/>
       <c r="U106" s="42"/>
       <c r="V106" s="42"/>
@@ -10816,23 +10825,23 @@
     </row>
     <row r="107" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B107" s="42"/>
-      <c r="C107" s="104"/>
-      <c r="D107" s="104"/>
-      <c r="E107" s="104"/>
-      <c r="F107" s="104"/>
-      <c r="G107" s="104"/>
-      <c r="H107" s="104"/>
-      <c r="I107" s="104"/>
-      <c r="J107" s="104"/>
-      <c r="K107" s="104"/>
-      <c r="L107" s="104"/>
-      <c r="M107" s="104"/>
-      <c r="N107" s="104"/>
-      <c r="O107" s="104"/>
-      <c r="P107" s="104"/>
-      <c r="Q107" s="104"/>
-      <c r="R107" s="104"/>
-      <c r="S107" s="104"/>
+      <c r="C107" s="103"/>
+      <c r="D107" s="103"/>
+      <c r="E107" s="103"/>
+      <c r="F107" s="103"/>
+      <c r="G107" s="103"/>
+      <c r="H107" s="103"/>
+      <c r="I107" s="103"/>
+      <c r="J107" s="103"/>
+      <c r="K107" s="103"/>
+      <c r="L107" s="103"/>
+      <c r="M107" s="103"/>
+      <c r="N107" s="103"/>
+      <c r="O107" s="103"/>
+      <c r="P107" s="103"/>
+      <c r="Q107" s="103"/>
+      <c r="R107" s="103"/>
+      <c r="S107" s="103"/>
       <c r="T107" s="42"/>
       <c r="U107" s="42"/>
       <c r="V107" s="42"/>
@@ -10875,23 +10884,23 @@
     </row>
     <row r="108" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B108" s="42"/>
-      <c r="C108" s="104"/>
-      <c r="D108" s="104"/>
-      <c r="E108" s="104"/>
-      <c r="F108" s="104"/>
-      <c r="G108" s="104"/>
-      <c r="H108" s="104"/>
-      <c r="I108" s="104"/>
-      <c r="J108" s="104"/>
-      <c r="K108" s="104"/>
-      <c r="L108" s="104"/>
-      <c r="M108" s="104"/>
-      <c r="N108" s="104"/>
-      <c r="O108" s="104"/>
-      <c r="P108" s="104"/>
-      <c r="Q108" s="104"/>
-      <c r="R108" s="104"/>
-      <c r="S108" s="104"/>
+      <c r="C108" s="103"/>
+      <c r="D108" s="103"/>
+      <c r="E108" s="103"/>
+      <c r="F108" s="103"/>
+      <c r="G108" s="103"/>
+      <c r="H108" s="103"/>
+      <c r="I108" s="103"/>
+      <c r="J108" s="103"/>
+      <c r="K108" s="103"/>
+      <c r="L108" s="103"/>
+      <c r="M108" s="103"/>
+      <c r="N108" s="103"/>
+      <c r="O108" s="103"/>
+      <c r="P108" s="103"/>
+      <c r="Q108" s="103"/>
+      <c r="R108" s="103"/>
+      <c r="S108" s="103"/>
       <c r="T108" s="42"/>
       <c r="U108" s="42"/>
       <c r="V108" s="42"/>
@@ -10934,23 +10943,23 @@
     </row>
     <row r="109" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B109" s="42"/>
-      <c r="C109" s="104"/>
-      <c r="D109" s="104"/>
-      <c r="E109" s="104"/>
-      <c r="F109" s="104"/>
-      <c r="G109" s="104"/>
-      <c r="H109" s="104"/>
-      <c r="I109" s="104"/>
-      <c r="J109" s="104"/>
-      <c r="K109" s="104"/>
-      <c r="L109" s="104"/>
-      <c r="M109" s="104"/>
-      <c r="N109" s="104"/>
-      <c r="O109" s="104"/>
-      <c r="P109" s="104"/>
-      <c r="Q109" s="104"/>
-      <c r="R109" s="104"/>
-      <c r="S109" s="104"/>
+      <c r="C109" s="103"/>
+      <c r="D109" s="103"/>
+      <c r="E109" s="103"/>
+      <c r="F109" s="103"/>
+      <c r="G109" s="103"/>
+      <c r="H109" s="103"/>
+      <c r="I109" s="103"/>
+      <c r="J109" s="103"/>
+      <c r="K109" s="103"/>
+      <c r="L109" s="103"/>
+      <c r="M109" s="103"/>
+      <c r="N109" s="103"/>
+      <c r="O109" s="103"/>
+      <c r="P109" s="103"/>
+      <c r="Q109" s="103"/>
+      <c r="R109" s="103"/>
+      <c r="S109" s="103"/>
       <c r="T109" s="42"/>
       <c r="U109" s="42"/>
       <c r="V109" s="42"/>
@@ -10993,23 +11002,23 @@
     </row>
     <row r="110" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B110" s="42"/>
-      <c r="C110" s="105"/>
-      <c r="D110" s="105"/>
-      <c r="E110" s="105"/>
-      <c r="F110" s="105"/>
-      <c r="G110" s="105"/>
-      <c r="H110" s="105"/>
-      <c r="I110" s="105"/>
-      <c r="J110" s="105"/>
-      <c r="K110" s="105"/>
-      <c r="L110" s="105"/>
-      <c r="M110" s="105"/>
-      <c r="N110" s="105"/>
-      <c r="O110" s="105"/>
-      <c r="P110" s="105"/>
-      <c r="Q110" s="105"/>
-      <c r="R110" s="105"/>
-      <c r="S110" s="105"/>
+      <c r="C110" s="104"/>
+      <c r="D110" s="104"/>
+      <c r="E110" s="104"/>
+      <c r="F110" s="104"/>
+      <c r="G110" s="104"/>
+      <c r="H110" s="104"/>
+      <c r="I110" s="104"/>
+      <c r="J110" s="104"/>
+      <c r="K110" s="104"/>
+      <c r="L110" s="104"/>
+      <c r="M110" s="104"/>
+      <c r="N110" s="104"/>
+      <c r="O110" s="104"/>
+      <c r="P110" s="104"/>
+      <c r="Q110" s="104"/>
+      <c r="R110" s="104"/>
+      <c r="S110" s="104"/>
       <c r="T110" s="42"/>
       <c r="U110" s="42"/>
       <c r="V110" s="42"/>
@@ -11170,63 +11179,63 @@
     </row>
     <row r="113" spans="2:58" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B113" s="42"/>
-      <c r="C113" s="109" t="s">
-        <v>250</v>
-      </c>
-      <c r="D113" s="109"/>
-      <c r="E113" s="109"/>
-      <c r="F113" s="109"/>
-      <c r="G113" s="109"/>
-      <c r="H113" s="109"/>
-      <c r="I113" s="109"/>
-      <c r="J113" s="109"/>
-      <c r="K113" s="109"/>
-      <c r="L113" s="109"/>
-      <c r="M113" s="109"/>
-      <c r="N113" s="109"/>
-      <c r="O113" s="109"/>
-      <c r="P113" s="109"/>
-      <c r="Q113" s="109"/>
-      <c r="R113" s="109"/>
-      <c r="S113" s="109"/>
-      <c r="T113" s="109"/>
-      <c r="U113" s="109"/>
-      <c r="V113" s="109"/>
-      <c r="W113" s="109"/>
-      <c r="X113" s="109"/>
-      <c r="Y113" s="109"/>
-      <c r="Z113" s="109"/>
-      <c r="AA113" s="109"/>
-      <c r="AB113" s="109"/>
-      <c r="AC113" s="109"/>
-      <c r="AD113" s="109"/>
-      <c r="AE113" s="109"/>
-      <c r="AF113" s="109"/>
-      <c r="AG113" s="109"/>
-      <c r="AH113" s="109"/>
-      <c r="AI113" s="109"/>
-      <c r="AJ113" s="109"/>
-      <c r="AK113" s="109"/>
-      <c r="AL113" s="109"/>
-      <c r="AM113" s="109"/>
-      <c r="AN113" s="109"/>
-      <c r="AO113" s="109"/>
-      <c r="AP113" s="109"/>
-      <c r="AQ113" s="109"/>
-      <c r="AR113" s="109"/>
-      <c r="AS113" s="109"/>
-      <c r="AT113" s="109"/>
-      <c r="AU113" s="109"/>
-      <c r="AV113" s="109"/>
-      <c r="AW113" s="109"/>
-      <c r="AX113" s="109"/>
-      <c r="AY113" s="109"/>
-      <c r="AZ113" s="109"/>
-      <c r="BA113" s="109"/>
-      <c r="BB113" s="109"/>
-      <c r="BC113" s="109"/>
-      <c r="BD113" s="109"/>
-      <c r="BE113" s="109"/>
+      <c r="C113" s="108" t="s">
+        <v>249</v>
+      </c>
+      <c r="D113" s="108"/>
+      <c r="E113" s="108"/>
+      <c r="F113" s="108"/>
+      <c r="G113" s="108"/>
+      <c r="H113" s="108"/>
+      <c r="I113" s="108"/>
+      <c r="J113" s="108"/>
+      <c r="K113" s="108"/>
+      <c r="L113" s="108"/>
+      <c r="M113" s="108"/>
+      <c r="N113" s="108"/>
+      <c r="O113" s="108"/>
+      <c r="P113" s="108"/>
+      <c r="Q113" s="108"/>
+      <c r="R113" s="108"/>
+      <c r="S113" s="108"/>
+      <c r="T113" s="108"/>
+      <c r="U113" s="108"/>
+      <c r="V113" s="108"/>
+      <c r="W113" s="108"/>
+      <c r="X113" s="108"/>
+      <c r="Y113" s="108"/>
+      <c r="Z113" s="108"/>
+      <c r="AA113" s="108"/>
+      <c r="AB113" s="108"/>
+      <c r="AC113" s="108"/>
+      <c r="AD113" s="108"/>
+      <c r="AE113" s="108"/>
+      <c r="AF113" s="108"/>
+      <c r="AG113" s="108"/>
+      <c r="AH113" s="108"/>
+      <c r="AI113" s="108"/>
+      <c r="AJ113" s="108"/>
+      <c r="AK113" s="108"/>
+      <c r="AL113" s="108"/>
+      <c r="AM113" s="108"/>
+      <c r="AN113" s="108"/>
+      <c r="AO113" s="108"/>
+      <c r="AP113" s="108"/>
+      <c r="AQ113" s="108"/>
+      <c r="AR113" s="108"/>
+      <c r="AS113" s="108"/>
+      <c r="AT113" s="108"/>
+      <c r="AU113" s="108"/>
+      <c r="AV113" s="108"/>
+      <c r="AW113" s="108"/>
+      <c r="AX113" s="108"/>
+      <c r="AY113" s="108"/>
+      <c r="AZ113" s="108"/>
+      <c r="BA113" s="108"/>
+      <c r="BB113" s="108"/>
+      <c r="BC113" s="108"/>
+      <c r="BD113" s="108"/>
+      <c r="BE113" s="108"/>
       <c r="BF113" s="42"/>
     </row>
     <row r="114" spans="2:58" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -11239,65 +11248,65 @@
       <c r="F114" s="84" t="s">
         <v>137</v>
       </c>
-      <c r="G114" s="120" t="s">
+      <c r="G114" s="121" t="s">
         <v>132</v>
       </c>
-      <c r="H114" s="121"/>
-      <c r="I114" s="121"/>
-      <c r="J114" s="121"/>
-      <c r="K114" s="121"/>
-      <c r="L114" s="121"/>
-      <c r="M114" s="121"/>
-      <c r="N114" s="121"/>
-      <c r="O114" s="121"/>
-      <c r="P114" s="121"/>
-      <c r="Q114" s="121"/>
-      <c r="R114" s="121"/>
-      <c r="S114" s="121" t="s">
+      <c r="H114" s="122"/>
+      <c r="I114" s="122"/>
+      <c r="J114" s="122"/>
+      <c r="K114" s="122"/>
+      <c r="L114" s="122"/>
+      <c r="M114" s="122"/>
+      <c r="N114" s="122"/>
+      <c r="O114" s="122"/>
+      <c r="P114" s="122"/>
+      <c r="Q114" s="122"/>
+      <c r="R114" s="122"/>
+      <c r="S114" s="122" t="s">
         <v>133</v>
       </c>
-      <c r="T114" s="121"/>
-      <c r="U114" s="121"/>
-      <c r="V114" s="121"/>
-      <c r="W114" s="121"/>
-      <c r="X114" s="121"/>
-      <c r="Y114" s="121"/>
-      <c r="Z114" s="121"/>
-      <c r="AA114" s="121"/>
-      <c r="AB114" s="121"/>
-      <c r="AC114" s="121"/>
-      <c r="AD114" s="121"/>
-      <c r="AE114" s="121"/>
-      <c r="AF114" s="121"/>
-      <c r="AG114" s="121" t="s">
+      <c r="T114" s="122"/>
+      <c r="U114" s="122"/>
+      <c r="V114" s="122"/>
+      <c r="W114" s="122"/>
+      <c r="X114" s="122"/>
+      <c r="Y114" s="122"/>
+      <c r="Z114" s="122"/>
+      <c r="AA114" s="122"/>
+      <c r="AB114" s="122"/>
+      <c r="AC114" s="122"/>
+      <c r="AD114" s="122"/>
+      <c r="AE114" s="122"/>
+      <c r="AF114" s="122"/>
+      <c r="AG114" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="AH114" s="121"/>
-      <c r="AI114" s="121"/>
-      <c r="AJ114" s="121"/>
-      <c r="AK114" s="121"/>
-      <c r="AL114" s="121"/>
-      <c r="AM114" s="121"/>
-      <c r="AN114" s="121"/>
-      <c r="AO114" s="121"/>
-      <c r="AP114" s="121"/>
-      <c r="AQ114" s="121"/>
-      <c r="AR114" s="121"/>
-      <c r="AS114" s="121" t="s">
+      <c r="AH114" s="122"/>
+      <c r="AI114" s="122"/>
+      <c r="AJ114" s="122"/>
+      <c r="AK114" s="122"/>
+      <c r="AL114" s="122"/>
+      <c r="AM114" s="122"/>
+      <c r="AN114" s="122"/>
+      <c r="AO114" s="122"/>
+      <c r="AP114" s="122"/>
+      <c r="AQ114" s="122"/>
+      <c r="AR114" s="122"/>
+      <c r="AS114" s="122" t="s">
         <v>135</v>
       </c>
-      <c r="AT114" s="121"/>
-      <c r="AU114" s="121"/>
-      <c r="AV114" s="121"/>
-      <c r="AW114" s="121"/>
-      <c r="AX114" s="121"/>
-      <c r="AY114" s="121"/>
-      <c r="AZ114" s="121"/>
-      <c r="BA114" s="121"/>
-      <c r="BB114" s="121"/>
-      <c r="BC114" s="121"/>
-      <c r="BD114" s="121"/>
-      <c r="BE114" s="122"/>
+      <c r="AT114" s="122"/>
+      <c r="AU114" s="122"/>
+      <c r="AV114" s="122"/>
+      <c r="AW114" s="122"/>
+      <c r="AX114" s="122"/>
+      <c r="AY114" s="122"/>
+      <c r="AZ114" s="122"/>
+      <c r="BA114" s="122"/>
+      <c r="BB114" s="122"/>
+      <c r="BC114" s="122"/>
+      <c r="BD114" s="122"/>
+      <c r="BE114" s="123"/>
       <c r="BF114" s="42"/>
     </row>
     <row r="115" spans="2:58" s="9" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.2">
@@ -11590,10 +11599,10 @@
     <row r="118" spans="2:58" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B118" s="47"/>
       <c r="C118" s="47"/>
-      <c r="D118" s="123" t="s">
-        <v>251</v>
-      </c>
-      <c r="E118" s="123"/>
+      <c r="D118" s="115" t="s">
+        <v>250</v>
+      </c>
+      <c r="E118" s="115"/>
       <c r="F118" s="47"/>
       <c r="G118" s="47"/>
       <c r="H118" s="47"/>
@@ -12323,25 +12332,25 @@
     </row>
     <row r="130" spans="2:58" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B130" s="42"/>
-      <c r="C130" s="119" t="s">
-        <v>238</v>
-      </c>
-      <c r="D130" s="119"/>
-      <c r="E130" s="119"/>
-      <c r="F130" s="119"/>
-      <c r="G130" s="119"/>
-      <c r="H130" s="119"/>
-      <c r="I130" s="119"/>
-      <c r="J130" s="119"/>
-      <c r="K130" s="119"/>
-      <c r="L130" s="119"/>
-      <c r="M130" s="119"/>
-      <c r="N130" s="119"/>
-      <c r="O130" s="119"/>
-      <c r="P130" s="119"/>
-      <c r="Q130" s="119"/>
-      <c r="R130" s="119"/>
-      <c r="S130" s="119"/>
+      <c r="C130" s="118" t="s">
+        <v>237</v>
+      </c>
+      <c r="D130" s="118"/>
+      <c r="E130" s="118"/>
+      <c r="F130" s="118"/>
+      <c r="G130" s="118"/>
+      <c r="H130" s="118"/>
+      <c r="I130" s="118"/>
+      <c r="J130" s="118"/>
+      <c r="K130" s="118"/>
+      <c r="L130" s="118"/>
+      <c r="M130" s="118"/>
+      <c r="N130" s="118"/>
+      <c r="O130" s="118"/>
+      <c r="P130" s="118"/>
+      <c r="Q130" s="118"/>
+      <c r="R130" s="118"/>
+      <c r="S130" s="118"/>
       <c r="T130" s="42"/>
       <c r="U130" s="42"/>
       <c r="V130" s="42"/>
@@ -12502,25 +12511,25 @@
     </row>
     <row r="133" spans="2:58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="42"/>
-      <c r="C133" s="110" t="s">
-        <v>201</v>
-      </c>
-      <c r="D133" s="110"/>
-      <c r="E133" s="110"/>
-      <c r="F133" s="110"/>
-      <c r="G133" s="110"/>
-      <c r="H133" s="110"/>
-      <c r="I133" s="110"/>
-      <c r="J133" s="110"/>
-      <c r="K133" s="110"/>
-      <c r="L133" s="110"/>
-      <c r="M133" s="110"/>
-      <c r="N133" s="110"/>
-      <c r="O133" s="110"/>
-      <c r="P133" s="110"/>
-      <c r="Q133" s="110"/>
-      <c r="R133" s="110"/>
-      <c r="S133" s="110"/>
+      <c r="C133" s="109" t="s">
+        <v>200</v>
+      </c>
+      <c r="D133" s="109"/>
+      <c r="E133" s="109"/>
+      <c r="F133" s="109"/>
+      <c r="G133" s="109"/>
+      <c r="H133" s="109"/>
+      <c r="I133" s="109"/>
+      <c r="J133" s="109"/>
+      <c r="K133" s="109"/>
+      <c r="L133" s="109"/>
+      <c r="M133" s="109"/>
+      <c r="N133" s="109"/>
+      <c r="O133" s="109"/>
+      <c r="P133" s="109"/>
+      <c r="Q133" s="109"/>
+      <c r="R133" s="109"/>
+      <c r="S133" s="109"/>
       <c r="T133" s="42"/>
       <c r="U133" s="42"/>
       <c r="V133" s="42"/>
@@ -12563,23 +12572,23 @@
     </row>
     <row r="134" spans="2:58" s="61" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="62"/>
-      <c r="C134" s="104"/>
-      <c r="D134" s="104"/>
-      <c r="E134" s="104"/>
-      <c r="F134" s="104"/>
-      <c r="G134" s="104"/>
-      <c r="H134" s="104"/>
-      <c r="I134" s="104"/>
-      <c r="J134" s="104"/>
-      <c r="K134" s="104"/>
-      <c r="L134" s="104"/>
-      <c r="M134" s="104"/>
-      <c r="N134" s="104"/>
-      <c r="O134" s="104"/>
-      <c r="P134" s="104"/>
-      <c r="Q134" s="104"/>
-      <c r="R134" s="104"/>
-      <c r="S134" s="104"/>
+      <c r="C134" s="103"/>
+      <c r="D134" s="103"/>
+      <c r="E134" s="103"/>
+      <c r="F134" s="103"/>
+      <c r="G134" s="103"/>
+      <c r="H134" s="103"/>
+      <c r="I134" s="103"/>
+      <c r="J134" s="103"/>
+      <c r="K134" s="103"/>
+      <c r="L134" s="103"/>
+      <c r="M134" s="103"/>
+      <c r="N134" s="103"/>
+      <c r="O134" s="103"/>
+      <c r="P134" s="103"/>
+      <c r="Q134" s="103"/>
+      <c r="R134" s="103"/>
+      <c r="S134" s="103"/>
       <c r="T134" s="62"/>
       <c r="U134" s="62"/>
       <c r="V134" s="62"/>
@@ -12622,23 +12631,23 @@
     </row>
     <row r="135" spans="2:58" s="61" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="62"/>
-      <c r="C135" s="104"/>
-      <c r="D135" s="104"/>
-      <c r="E135" s="104"/>
-      <c r="F135" s="104"/>
-      <c r="G135" s="104"/>
-      <c r="H135" s="104"/>
-      <c r="I135" s="104"/>
-      <c r="J135" s="104"/>
-      <c r="K135" s="104"/>
-      <c r="L135" s="104"/>
-      <c r="M135" s="104"/>
-      <c r="N135" s="104"/>
-      <c r="O135" s="104"/>
-      <c r="P135" s="104"/>
-      <c r="Q135" s="104"/>
-      <c r="R135" s="104"/>
-      <c r="S135" s="104"/>
+      <c r="C135" s="103"/>
+      <c r="D135" s="103"/>
+      <c r="E135" s="103"/>
+      <c r="F135" s="103"/>
+      <c r="G135" s="103"/>
+      <c r="H135" s="103"/>
+      <c r="I135" s="103"/>
+      <c r="J135" s="103"/>
+      <c r="K135" s="103"/>
+      <c r="L135" s="103"/>
+      <c r="M135" s="103"/>
+      <c r="N135" s="103"/>
+      <c r="O135" s="103"/>
+      <c r="P135" s="103"/>
+      <c r="Q135" s="103"/>
+      <c r="R135" s="103"/>
+      <c r="S135" s="103"/>
       <c r="T135" s="62"/>
       <c r="U135" s="62"/>
       <c r="V135" s="62"/>
@@ -12681,23 +12690,23 @@
     </row>
     <row r="136" spans="2:58" s="61" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="62"/>
-      <c r="C136" s="104"/>
-      <c r="D136" s="104"/>
-      <c r="E136" s="104"/>
-      <c r="F136" s="104"/>
-      <c r="G136" s="104"/>
-      <c r="H136" s="104"/>
-      <c r="I136" s="104"/>
-      <c r="J136" s="104"/>
-      <c r="K136" s="104"/>
-      <c r="L136" s="104"/>
-      <c r="M136" s="104"/>
-      <c r="N136" s="104"/>
-      <c r="O136" s="104"/>
-      <c r="P136" s="104"/>
-      <c r="Q136" s="104"/>
-      <c r="R136" s="104"/>
-      <c r="S136" s="104"/>
+      <c r="C136" s="103"/>
+      <c r="D136" s="103"/>
+      <c r="E136" s="103"/>
+      <c r="F136" s="103"/>
+      <c r="G136" s="103"/>
+      <c r="H136" s="103"/>
+      <c r="I136" s="103"/>
+      <c r="J136" s="103"/>
+      <c r="K136" s="103"/>
+      <c r="L136" s="103"/>
+      <c r="M136" s="103"/>
+      <c r="N136" s="103"/>
+      <c r="O136" s="103"/>
+      <c r="P136" s="103"/>
+      <c r="Q136" s="103"/>
+      <c r="R136" s="103"/>
+      <c r="S136" s="103"/>
       <c r="T136" s="62"/>
       <c r="U136" s="62"/>
       <c r="V136" s="62"/>
@@ -12740,23 +12749,23 @@
     </row>
     <row r="137" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B137" s="42"/>
-      <c r="C137" s="104"/>
-      <c r="D137" s="104"/>
-      <c r="E137" s="104"/>
-      <c r="F137" s="104"/>
-      <c r="G137" s="104"/>
-      <c r="H137" s="104"/>
-      <c r="I137" s="104"/>
-      <c r="J137" s="104"/>
-      <c r="K137" s="104"/>
-      <c r="L137" s="104"/>
-      <c r="M137" s="104"/>
-      <c r="N137" s="104"/>
-      <c r="O137" s="104"/>
-      <c r="P137" s="104"/>
-      <c r="Q137" s="104"/>
-      <c r="R137" s="104"/>
-      <c r="S137" s="104"/>
+      <c r="C137" s="103"/>
+      <c r="D137" s="103"/>
+      <c r="E137" s="103"/>
+      <c r="F137" s="103"/>
+      <c r="G137" s="103"/>
+      <c r="H137" s="103"/>
+      <c r="I137" s="103"/>
+      <c r="J137" s="103"/>
+      <c r="K137" s="103"/>
+      <c r="L137" s="103"/>
+      <c r="M137" s="103"/>
+      <c r="N137" s="103"/>
+      <c r="O137" s="103"/>
+      <c r="P137" s="103"/>
+      <c r="Q137" s="103"/>
+      <c r="R137" s="103"/>
+      <c r="S137" s="103"/>
       <c r="T137" s="42"/>
       <c r="U137" s="42"/>
       <c r="V137" s="42"/>
@@ -12799,23 +12808,23 @@
     </row>
     <row r="138" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B138" s="42"/>
-      <c r="C138" s="104"/>
-      <c r="D138" s="104"/>
-      <c r="E138" s="104"/>
-      <c r="F138" s="104"/>
-      <c r="G138" s="104"/>
-      <c r="H138" s="104"/>
-      <c r="I138" s="104"/>
-      <c r="J138" s="104"/>
-      <c r="K138" s="104"/>
-      <c r="L138" s="104"/>
-      <c r="M138" s="104"/>
-      <c r="N138" s="104"/>
-      <c r="O138" s="104"/>
-      <c r="P138" s="104"/>
-      <c r="Q138" s="104"/>
-      <c r="R138" s="104"/>
-      <c r="S138" s="104"/>
+      <c r="C138" s="103"/>
+      <c r="D138" s="103"/>
+      <c r="E138" s="103"/>
+      <c r="F138" s="103"/>
+      <c r="G138" s="103"/>
+      <c r="H138" s="103"/>
+      <c r="I138" s="103"/>
+      <c r="J138" s="103"/>
+      <c r="K138" s="103"/>
+      <c r="L138" s="103"/>
+      <c r="M138" s="103"/>
+      <c r="N138" s="103"/>
+      <c r="O138" s="103"/>
+      <c r="P138" s="103"/>
+      <c r="Q138" s="103"/>
+      <c r="R138" s="103"/>
+      <c r="S138" s="103"/>
       <c r="T138" s="42"/>
       <c r="U138" s="42"/>
       <c r="V138" s="42"/>
@@ -12858,23 +12867,23 @@
     </row>
     <row r="139" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B139" s="42"/>
-      <c r="C139" s="105"/>
-      <c r="D139" s="105"/>
-      <c r="E139" s="105"/>
-      <c r="F139" s="105"/>
-      <c r="G139" s="105"/>
-      <c r="H139" s="105"/>
-      <c r="I139" s="105"/>
-      <c r="J139" s="105"/>
-      <c r="K139" s="105"/>
-      <c r="L139" s="105"/>
-      <c r="M139" s="105"/>
-      <c r="N139" s="105"/>
-      <c r="O139" s="105"/>
-      <c r="P139" s="105"/>
-      <c r="Q139" s="105"/>
-      <c r="R139" s="105"/>
-      <c r="S139" s="105"/>
+      <c r="C139" s="104"/>
+      <c r="D139" s="104"/>
+      <c r="E139" s="104"/>
+      <c r="F139" s="104"/>
+      <c r="G139" s="104"/>
+      <c r="H139" s="104"/>
+      <c r="I139" s="104"/>
+      <c r="J139" s="104"/>
+      <c r="K139" s="104"/>
+      <c r="L139" s="104"/>
+      <c r="M139" s="104"/>
+      <c r="N139" s="104"/>
+      <c r="O139" s="104"/>
+      <c r="P139" s="104"/>
+      <c r="Q139" s="104"/>
+      <c r="R139" s="104"/>
+      <c r="S139" s="104"/>
       <c r="T139" s="42"/>
       <c r="U139" s="42"/>
       <c r="V139" s="42"/>
@@ -13035,26 +13044,26 @@
     </row>
     <row r="142" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B142" s="42"/>
-      <c r="C142" s="128" t="s">
-        <v>252</v>
-      </c>
-      <c r="D142" s="128"/>
-      <c r="E142" s="128"/>
-      <c r="F142" s="128"/>
-      <c r="G142" s="128"/>
-      <c r="H142" s="128"/>
-      <c r="I142" s="128"/>
-      <c r="J142" s="128"/>
-      <c r="K142" s="128"/>
-      <c r="L142" s="128"/>
-      <c r="M142" s="128"/>
-      <c r="N142" s="128"/>
-      <c r="O142" s="128"/>
-      <c r="P142" s="128"/>
-      <c r="Q142" s="128"/>
-      <c r="R142" s="128"/>
-      <c r="S142" s="128"/>
-      <c r="T142" s="128"/>
+      <c r="C142" s="111" t="s">
+        <v>251</v>
+      </c>
+      <c r="D142" s="111"/>
+      <c r="E142" s="111"/>
+      <c r="F142" s="111"/>
+      <c r="G142" s="111"/>
+      <c r="H142" s="111"/>
+      <c r="I142" s="111"/>
+      <c r="J142" s="111"/>
+      <c r="K142" s="111"/>
+      <c r="L142" s="111"/>
+      <c r="M142" s="111"/>
+      <c r="N142" s="111"/>
+      <c r="O142" s="111"/>
+      <c r="P142" s="111"/>
+      <c r="Q142" s="111"/>
+      <c r="R142" s="111"/>
+      <c r="S142" s="111"/>
+      <c r="T142" s="111"/>
       <c r="U142" s="42"/>
       <c r="V142" s="42"/>
       <c r="W142" s="42"/>
@@ -13096,28 +13105,28 @@
     </row>
     <row r="143" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B143" s="42"/>
-      <c r="C143" s="130" t="s">
+      <c r="C143" s="113" t="s">
         <v>127</v>
       </c>
-      <c r="D143" s="130"/>
-      <c r="E143" s="130"/>
-      <c r="F143" s="130"/>
-      <c r="G143" s="130"/>
-      <c r="H143" s="130"/>
-      <c r="I143" s="130"/>
-      <c r="J143" s="130"/>
-      <c r="K143" s="130"/>
-      <c r="L143" s="130"/>
-      <c r="M143" s="130"/>
-      <c r="N143" s="130"/>
-      <c r="O143" s="130"/>
-      <c r="P143" s="130"/>
-      <c r="Q143" s="111" t="s">
+      <c r="D143" s="113"/>
+      <c r="E143" s="113"/>
+      <c r="F143" s="113"/>
+      <c r="G143" s="113"/>
+      <c r="H143" s="113"/>
+      <c r="I143" s="113"/>
+      <c r="J143" s="113"/>
+      <c r="K143" s="113"/>
+      <c r="L143" s="113"/>
+      <c r="M143" s="113"/>
+      <c r="N143" s="113"/>
+      <c r="O143" s="113"/>
+      <c r="P143" s="113"/>
+      <c r="Q143" s="110" t="s">
         <v>128</v>
       </c>
-      <c r="R143" s="111"/>
-      <c r="S143" s="111"/>
-      <c r="T143" s="111"/>
+      <c r="R143" s="110"/>
+      <c r="S143" s="110"/>
+      <c r="T143" s="110"/>
       <c r="U143" s="42"/>
       <c r="V143" s="42"/>
       <c r="W143" s="42"/>
@@ -13159,26 +13168,26 @@
     </row>
     <row r="144" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B144" s="42"/>
-      <c r="C144" s="130" t="s">
+      <c r="C144" s="113" t="s">
         <v>146</v>
       </c>
-      <c r="D144" s="130"/>
-      <c r="E144" s="130"/>
-      <c r="F144" s="130"/>
-      <c r="G144" s="130"/>
-      <c r="H144" s="130"/>
-      <c r="I144" s="130"/>
-      <c r="J144" s="130"/>
-      <c r="K144" s="130"/>
-      <c r="L144" s="130"/>
-      <c r="M144" s="130"/>
-      <c r="N144" s="130"/>
-      <c r="O144" s="130"/>
-      <c r="P144" s="130"/>
-      <c r="Q144" s="111"/>
-      <c r="R144" s="111"/>
-      <c r="S144" s="111"/>
-      <c r="T144" s="111"/>
+      <c r="D144" s="113"/>
+      <c r="E144" s="113"/>
+      <c r="F144" s="113"/>
+      <c r="G144" s="113"/>
+      <c r="H144" s="113"/>
+      <c r="I144" s="113"/>
+      <c r="J144" s="113"/>
+      <c r="K144" s="113"/>
+      <c r="L144" s="113"/>
+      <c r="M144" s="113"/>
+      <c r="N144" s="113"/>
+      <c r="O144" s="113"/>
+      <c r="P144" s="113"/>
+      <c r="Q144" s="110"/>
+      <c r="R144" s="110"/>
+      <c r="S144" s="110"/>
+      <c r="T144" s="110"/>
       <c r="U144" s="42"/>
       <c r="V144" s="42"/>
       <c r="W144" s="42"/>
@@ -13220,26 +13229,26 @@
     </row>
     <row r="145" spans="2:58" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B145" s="42"/>
-      <c r="C145" s="130" t="s">
+      <c r="C145" s="113" t="s">
         <v>199</v>
       </c>
-      <c r="D145" s="130"/>
-      <c r="E145" s="130"/>
-      <c r="F145" s="130"/>
-      <c r="G145" s="130"/>
-      <c r="H145" s="130"/>
-      <c r="I145" s="130"/>
-      <c r="J145" s="130"/>
-      <c r="K145" s="130"/>
-      <c r="L145" s="130"/>
-      <c r="M145" s="130"/>
-      <c r="N145" s="130"/>
-      <c r="O145" s="130"/>
-      <c r="P145" s="130"/>
-      <c r="Q145" s="111"/>
-      <c r="R145" s="111"/>
-      <c r="S145" s="111"/>
-      <c r="T145" s="111"/>
+      <c r="D145" s="113"/>
+      <c r="E145" s="113"/>
+      <c r="F145" s="113"/>
+      <c r="G145" s="113"/>
+      <c r="H145" s="113"/>
+      <c r="I145" s="113"/>
+      <c r="J145" s="113"/>
+      <c r="K145" s="113"/>
+      <c r="L145" s="113"/>
+      <c r="M145" s="113"/>
+      <c r="N145" s="113"/>
+      <c r="O145" s="113"/>
+      <c r="P145" s="113"/>
+      <c r="Q145" s="110"/>
+      <c r="R145" s="110"/>
+      <c r="S145" s="110"/>
+      <c r="T145" s="110"/>
       <c r="U145" s="42"/>
       <c r="V145" s="42"/>
       <c r="W145" s="42"/>
@@ -13281,28 +13290,28 @@
     </row>
     <row r="146" spans="2:58" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B146" s="42"/>
-      <c r="C146" s="129" t="s">
+      <c r="C146" s="112" t="s">
         <v>136</v>
       </c>
-      <c r="D146" s="129"/>
-      <c r="E146" s="129"/>
-      <c r="F146" s="129"/>
-      <c r="G146" s="129"/>
-      <c r="H146" s="129"/>
-      <c r="I146" s="129"/>
-      <c r="J146" s="129"/>
-      <c r="K146" s="129"/>
-      <c r="L146" s="129"/>
-      <c r="M146" s="129"/>
-      <c r="N146" s="129"/>
-      <c r="O146" s="129"/>
-      <c r="P146" s="129"/>
-      <c r="Q146" s="131" t="s">
+      <c r="D146" s="112"/>
+      <c r="E146" s="112"/>
+      <c r="F146" s="112"/>
+      <c r="G146" s="112"/>
+      <c r="H146" s="112"/>
+      <c r="I146" s="112"/>
+      <c r="J146" s="112"/>
+      <c r="K146" s="112"/>
+      <c r="L146" s="112"/>
+      <c r="M146" s="112"/>
+      <c r="N146" s="112"/>
+      <c r="O146" s="112"/>
+      <c r="P146" s="112"/>
+      <c r="Q146" s="114" t="s">
         <v>137</v>
       </c>
-      <c r="R146" s="131"/>
-      <c r="S146" s="131"/>
-      <c r="T146" s="131"/>
+      <c r="R146" s="114"/>
+      <c r="S146" s="114"/>
+      <c r="T146" s="114"/>
       <c r="U146" s="42"/>
       <c r="V146" s="42"/>
       <c r="W146" s="42"/>
@@ -13382,12 +13391,12 @@
       </c>
       <c r="O147" s="23"/>
       <c r="P147" s="36"/>
-      <c r="Q147" s="126" t="s">
+      <c r="Q147" s="116" t="s">
         <v>132</v>
       </c>
-      <c r="R147" s="126"/>
-      <c r="S147" s="126"/>
-      <c r="T147" s="126"/>
+      <c r="R147" s="116"/>
+      <c r="S147" s="116"/>
+      <c r="T147" s="116"/>
       <c r="U147" s="42"/>
       <c r="V147" s="42"/>
       <c r="W147" s="42"/>
@@ -13471,12 +13480,12 @@
       <c r="P148" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="Q148" s="126" t="s">
+      <c r="Q148" s="116" t="s">
         <v>133</v>
       </c>
-      <c r="R148" s="126"/>
-      <c r="S148" s="126"/>
-      <c r="T148" s="126"/>
+      <c r="R148" s="116"/>
+      <c r="S148" s="116"/>
+      <c r="T148" s="116"/>
       <c r="U148" s="42"/>
       <c r="V148" s="42"/>
       <c r="W148" s="42"/>
@@ -13556,12 +13565,12 @@
       </c>
       <c r="O149" s="23"/>
       <c r="P149" s="36"/>
-      <c r="Q149" s="126" t="s">
+      <c r="Q149" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="R149" s="126"/>
-      <c r="S149" s="126"/>
-      <c r="T149" s="126"/>
+      <c r="R149" s="116"/>
+      <c r="S149" s="116"/>
+      <c r="T149" s="116"/>
       <c r="U149" s="42"/>
       <c r="V149" s="42"/>
       <c r="W149" s="42"/>
@@ -13643,12 +13652,12 @@
         <v>120</v>
       </c>
       <c r="P150" s="36"/>
-      <c r="Q150" s="127" t="s">
+      <c r="Q150" s="117" t="s">
         <v>135</v>
       </c>
-      <c r="R150" s="127"/>
-      <c r="S150" s="127"/>
-      <c r="T150" s="127"/>
+      <c r="R150" s="117"/>
+      <c r="S150" s="117"/>
+      <c r="T150" s="117"/>
       <c r="U150" s="42"/>
       <c r="V150" s="42"/>
       <c r="W150" s="42"/>
@@ -13809,10 +13818,10 @@
     <row r="153" spans="2:58" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B153" s="47"/>
       <c r="C153" s="47"/>
-      <c r="D153" s="123" t="s">
-        <v>262</v>
-      </c>
-      <c r="E153" s="123"/>
+      <c r="D153" s="115" t="s">
+        <v>261</v>
+      </c>
+      <c r="E153" s="115"/>
       <c r="F153" s="47"/>
       <c r="G153" s="47"/>
       <c r="H153" s="47"/>
@@ -14603,6 +14612,33 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C27:C38"/>
+    <mergeCell ref="E27:E38"/>
+    <mergeCell ref="C12:S19"/>
+    <mergeCell ref="C8:S9"/>
+    <mergeCell ref="C39:C52"/>
+    <mergeCell ref="E39:E52"/>
+    <mergeCell ref="C53:C64"/>
+    <mergeCell ref="E53:E64"/>
+    <mergeCell ref="C65:C77"/>
+    <mergeCell ref="E65:E77"/>
+    <mergeCell ref="C130:S130"/>
+    <mergeCell ref="C113:BE113"/>
+    <mergeCell ref="G114:R114"/>
+    <mergeCell ref="S114:AF114"/>
+    <mergeCell ref="AG114:AR114"/>
+    <mergeCell ref="AS114:BE114"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="C100:S110"/>
+    <mergeCell ref="C97:S97"/>
+    <mergeCell ref="C81:S82"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="Q147:T147"/>
+    <mergeCell ref="Q148:T148"/>
+    <mergeCell ref="Q149:T149"/>
+    <mergeCell ref="Q150:T150"/>
     <mergeCell ref="C142:T142"/>
     <mergeCell ref="C133:S139"/>
     <mergeCell ref="C146:P146"/>
@@ -14613,33 +14649,6 @@
     <mergeCell ref="Q145:T145"/>
     <mergeCell ref="Q144:T144"/>
     <mergeCell ref="Q143:T143"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="Q147:T147"/>
-    <mergeCell ref="Q148:T148"/>
-    <mergeCell ref="Q149:T149"/>
-    <mergeCell ref="Q150:T150"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="C100:S110"/>
-    <mergeCell ref="C97:S97"/>
-    <mergeCell ref="C81:S82"/>
-    <mergeCell ref="C130:S130"/>
-    <mergeCell ref="C113:BE113"/>
-    <mergeCell ref="G114:R114"/>
-    <mergeCell ref="S114:AF114"/>
-    <mergeCell ref="AG114:AR114"/>
-    <mergeCell ref="AS114:BE114"/>
-    <mergeCell ref="C39:C52"/>
-    <mergeCell ref="E39:E52"/>
-    <mergeCell ref="C53:C64"/>
-    <mergeCell ref="E53:E64"/>
-    <mergeCell ref="C65:C77"/>
-    <mergeCell ref="E65:E77"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C27:C38"/>
-    <mergeCell ref="E27:E38"/>
-    <mergeCell ref="C12:S19"/>
-    <mergeCell ref="C8:S9"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -14662,7 +14671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K137"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C102" sqref="C102:G107"/>
     </sheetView>
   </sheetViews>
@@ -14677,7 +14686,7 @@
   <sheetData>
     <row r="3" spans="2:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="81" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C3" s="81"/>
       <c r="D3" s="80"/>
@@ -14736,13 +14745,13 @@
     </row>
     <row r="8" spans="2:11" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B8" s="47"/>
-      <c r="C8" s="106" t="s">
-        <v>235</v>
-      </c>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
+      <c r="C8" s="105" t="s">
+        <v>234</v>
+      </c>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
       <c r="H8" s="47"/>
       <c r="I8" s="47"/>
       <c r="J8" s="47"/>
@@ -14750,11 +14759,11 @@
     </row>
     <row r="9" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="47"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
       <c r="H9" s="47"/>
       <c r="I9" s="47"/>
       <c r="J9" s="47"/>
@@ -14786,13 +14795,13 @@
     </row>
     <row r="12" spans="2:11" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B12" s="47"/>
-      <c r="C12" s="132" t="s">
-        <v>240</v>
-      </c>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
+      <c r="C12" s="131" t="s">
+        <v>239</v>
+      </c>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
       <c r="H12" s="47"/>
       <c r="I12" s="47"/>
       <c r="J12" s="47"/>
@@ -14800,11 +14809,11 @@
     </row>
     <row r="13" spans="2:11" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B13" s="47"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
       <c r="H13" s="47"/>
       <c r="I13" s="47"/>
       <c r="J13" s="47"/>
@@ -14812,11 +14821,11 @@
     </row>
     <row r="14" spans="2:11" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B14" s="47"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
       <c r="H14" s="47"/>
       <c r="I14" s="47"/>
       <c r="J14" s="47"/>
@@ -14824,11 +14833,11 @@
     </row>
     <row r="15" spans="2:11" s="61" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B15" s="62"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
       <c r="J15" s="62"/>
@@ -14836,11 +14845,11 @@
     </row>
     <row r="16" spans="2:11" s="61" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B16" s="62"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
       <c r="H16" s="62"/>
       <c r="I16" s="62"/>
       <c r="J16" s="62"/>
@@ -14848,11 +14857,11 @@
     </row>
     <row r="17" spans="2:11" s="61" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B17" s="62"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
       <c r="H17" s="62"/>
       <c r="I17" s="62"/>
       <c r="J17" s="62"/>
@@ -14860,11 +14869,11 @@
     </row>
     <row r="18" spans="2:11" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B18" s="47"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
       <c r="J18" s="47"/>
@@ -14872,11 +14881,11 @@
     </row>
     <row r="19" spans="2:11" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B19" s="47"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
       <c r="H19" s="47"/>
       <c r="I19" s="47"/>
       <c r="J19" s="47"/>
@@ -14909,11 +14918,11 @@
     <row r="22" spans="2:11" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B22" s="62"/>
       <c r="C22" s="62"/>
-      <c r="D22" s="123" t="s">
-        <v>253</v>
-      </c>
-      <c r="E22" s="123"/>
-      <c r="F22" s="123"/>
+      <c r="D22" s="115" t="s">
+        <v>252</v>
+      </c>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
       <c r="G22" s="62"/>
       <c r="H22" s="62"/>
       <c r="I22" s="62"/>
@@ -14923,10 +14932,10 @@
     <row r="23" spans="2:11" s="61" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B23" s="62"/>
       <c r="C23" s="62"/>
-      <c r="D23" s="111" t="s">
+      <c r="D23" s="110" t="s">
         <v>127</v>
       </c>
-      <c r="E23" s="111"/>
+      <c r="E23" s="110"/>
       <c r="F23" s="63" t="s">
         <v>128</v>
       </c>
@@ -14939,12 +14948,12 @@
     <row r="24" spans="2:11" s="61" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B24" s="62"/>
       <c r="C24" s="62"/>
-      <c r="D24" s="111" t="s">
-        <v>239</v>
-      </c>
-      <c r="E24" s="111"/>
+      <c r="D24" s="110" t="s">
+        <v>238</v>
+      </c>
+      <c r="E24" s="110"/>
       <c r="F24" s="63" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G24" s="62"/>
       <c r="H24" s="62"/>
@@ -14956,13 +14965,13 @@
       <c r="B25" s="62"/>
       <c r="C25" s="62"/>
       <c r="D25" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="E25" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="E25" s="63" t="s">
+      <c r="F25" s="63" t="s">
         <v>216</v>
-      </c>
-      <c r="F25" s="63" t="s">
-        <v>217</v>
       </c>
       <c r="G25" s="62"/>
       <c r="H25" s="62"/>
@@ -14974,13 +14983,13 @@
       <c r="B26" s="62"/>
       <c r="C26" s="62"/>
       <c r="D26" s="64" t="s">
+        <v>217</v>
+      </c>
+      <c r="E26" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="E26" s="64" t="s">
+      <c r="F26" s="83" t="s">
         <v>219</v>
-      </c>
-      <c r="F26" s="83" t="s">
-        <v>220</v>
       </c>
       <c r="G26" s="62"/>
       <c r="H26" s="62"/>
@@ -14998,7 +15007,7 @@
         <v>12</v>
       </c>
       <c r="F27" s="71" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G27" s="62"/>
       <c r="H27" s="62"/>
@@ -15016,7 +15025,7 @@
         <v>18</v>
       </c>
       <c r="F28" s="67" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G28" s="62"/>
       <c r="H28" s="62"/>
@@ -15034,7 +15043,7 @@
         <v>22</v>
       </c>
       <c r="F29" s="67" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G29" s="62"/>
       <c r="H29" s="62"/>
@@ -15052,7 +15061,7 @@
         <v>24</v>
       </c>
       <c r="F30" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G30" s="62"/>
       <c r="H30" s="62"/>
@@ -15087,11 +15096,11 @@
     <row r="33" spans="2:11" s="61" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B33" s="62"/>
       <c r="C33" s="62"/>
-      <c r="D33" s="123" t="s">
-        <v>254</v>
-      </c>
-      <c r="E33" s="123"/>
-      <c r="F33" s="123"/>
+      <c r="D33" s="115" t="s">
+        <v>253</v>
+      </c>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
       <c r="G33" s="62"/>
       <c r="H33" s="62"/>
       <c r="I33" s="62"/>
@@ -15101,10 +15110,10 @@
     <row r="34" spans="2:11" s="61" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B34" s="62"/>
       <c r="C34" s="62"/>
-      <c r="D34" s="111" t="s">
+      <c r="D34" s="110" t="s">
         <v>127</v>
       </c>
-      <c r="E34" s="111"/>
+      <c r="E34" s="110"/>
       <c r="F34" s="63" t="s">
         <v>128</v>
       </c>
@@ -15117,12 +15126,12 @@
     <row r="35" spans="2:11" s="61" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B35" s="62"/>
       <c r="C35" s="62"/>
-      <c r="D35" s="111" t="s">
-        <v>234</v>
-      </c>
-      <c r="E35" s="111"/>
+      <c r="D35" s="110" t="s">
+        <v>233</v>
+      </c>
+      <c r="E35" s="110"/>
       <c r="F35" s="63" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G35" s="62"/>
       <c r="H35" s="62"/>
@@ -15134,13 +15143,13 @@
       <c r="B36" s="62"/>
       <c r="C36" s="62"/>
       <c r="D36" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="E36" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="E36" s="63" t="s">
+      <c r="F36" s="63" t="s">
         <v>216</v>
-      </c>
-      <c r="F36" s="63" t="s">
-        <v>217</v>
       </c>
       <c r="G36" s="62"/>
       <c r="H36" s="62"/>
@@ -15152,13 +15161,13 @@
       <c r="B37" s="62"/>
       <c r="C37" s="62"/>
       <c r="D37" s="64" t="s">
+        <v>217</v>
+      </c>
+      <c r="E37" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="E37" s="64" t="s">
+      <c r="F37" s="83" t="s">
         <v>219</v>
-      </c>
-      <c r="F37" s="83" t="s">
-        <v>220</v>
       </c>
       <c r="G37" s="62"/>
       <c r="H37" s="62"/>
@@ -15176,7 +15185,7 @@
         <v>12</v>
       </c>
       <c r="F38" s="71" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G38" s="62"/>
       <c r="H38" s="62"/>
@@ -15194,7 +15203,7 @@
         <v>18</v>
       </c>
       <c r="F39" s="67" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G39" s="62"/>
       <c r="H39" s="62"/>
@@ -15212,7 +15221,7 @@
         <v>22</v>
       </c>
       <c r="F40" s="67" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G40" s="62"/>
       <c r="H40" s="62"/>
@@ -15230,7 +15239,7 @@
         <v>24</v>
       </c>
       <c r="F41" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G41" s="62"/>
       <c r="H41" s="62"/>
@@ -15266,10 +15275,10 @@
       <c r="B44" s="52"/>
       <c r="C44" s="52"/>
       <c r="D44" s="52"/>
-      <c r="E44" s="123" t="s">
-        <v>255</v>
-      </c>
-      <c r="F44" s="123"/>
+      <c r="E44" s="115" t="s">
+        <v>254</v>
+      </c>
+      <c r="F44" s="115"/>
       <c r="G44" s="52"/>
       <c r="H44" s="52"/>
       <c r="I44" s="52"/>
@@ -15297,10 +15306,10 @@
       <c r="C46" s="52"/>
       <c r="D46" s="52"/>
       <c r="E46" s="53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F46" s="53" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G46" s="52"/>
       <c r="H46" s="52"/>
@@ -15316,7 +15325,7 @@
         <v>184</v>
       </c>
       <c r="F47" s="53" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G47" s="52"/>
       <c r="H47" s="52"/>
@@ -15332,7 +15341,7 @@
         <v>174</v>
       </c>
       <c r="F48" s="83" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G48" s="52"/>
       <c r="H48" s="52"/>
@@ -15345,10 +15354,10 @@
       <c r="C49" s="52"/>
       <c r="D49" s="52"/>
       <c r="E49" s="55" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F49" s="59" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G49" s="52"/>
       <c r="H49" s="52"/>
@@ -15361,10 +15370,10 @@
       <c r="C50" s="52"/>
       <c r="D50" s="52"/>
       <c r="E50" s="56" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F50" s="57" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G50" s="52"/>
       <c r="H50" s="52"/>
@@ -15377,10 +15386,10 @@
       <c r="C51" s="52"/>
       <c r="D51" s="52"/>
       <c r="E51" s="56" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F51" s="57" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G51" s="52"/>
       <c r="H51" s="52"/>
@@ -15393,10 +15402,10 @@
       <c r="C52" s="52"/>
       <c r="D52" s="52"/>
       <c r="E52" s="58" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F52" s="60" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G52" s="52"/>
       <c r="H52" s="52"/>
@@ -15432,10 +15441,10 @@
       <c r="B55" s="62"/>
       <c r="C55" s="62"/>
       <c r="D55" s="62"/>
-      <c r="E55" s="123" t="s">
-        <v>256</v>
-      </c>
-      <c r="F55" s="123"/>
+      <c r="E55" s="115" t="s">
+        <v>255</v>
+      </c>
+      <c r="F55" s="115"/>
       <c r="G55" s="62"/>
       <c r="H55" s="62"/>
       <c r="I55" s="62"/>
@@ -15450,7 +15459,7 @@
         <v>174</v>
       </c>
       <c r="F56" s="83" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G56" s="62"/>
       <c r="H56" s="62"/>
@@ -15463,10 +15472,10 @@
       <c r="C57" s="62"/>
       <c r="D57" s="62"/>
       <c r="E57" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F57" s="71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G57" s="62"/>
       <c r="H57" s="62"/>
@@ -15479,10 +15488,10 @@
       <c r="C58" s="62"/>
       <c r="D58" s="62"/>
       <c r="E58" s="66" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F58" s="67" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G58" s="62"/>
       <c r="H58" s="62"/>
@@ -15495,10 +15504,10 @@
       <c r="C59" s="62"/>
       <c r="D59" s="62"/>
       <c r="E59" s="66" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F59" s="67" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G59" s="62"/>
       <c r="H59" s="62"/>
@@ -15511,10 +15520,10 @@
       <c r="C60" s="62"/>
       <c r="D60" s="62"/>
       <c r="E60" s="70" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F60" s="72" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G60" s="62"/>
       <c r="H60" s="62"/>
@@ -15548,13 +15557,13 @@
     </row>
     <row r="63" spans="2:11" s="61" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B63" s="62"/>
-      <c r="C63" s="133" t="s">
-        <v>241</v>
-      </c>
-      <c r="D63" s="133"/>
-      <c r="E63" s="133"/>
-      <c r="F63" s="133"/>
-      <c r="G63" s="133"/>
+      <c r="C63" s="132" t="s">
+        <v>240</v>
+      </c>
+      <c r="D63" s="132"/>
+      <c r="E63" s="132"/>
+      <c r="F63" s="132"/>
+      <c r="G63" s="132"/>
       <c r="H63" s="62"/>
       <c r="I63" s="62"/>
       <c r="J63" s="62"/>
@@ -15588,10 +15597,10 @@
       <c r="B66" s="62"/>
       <c r="C66" s="62"/>
       <c r="D66" s="62"/>
-      <c r="E66" s="123" t="s">
-        <v>257</v>
-      </c>
-      <c r="F66" s="123"/>
+      <c r="E66" s="115" t="s">
+        <v>256</v>
+      </c>
+      <c r="F66" s="115"/>
       <c r="G66" s="62"/>
       <c r="H66" s="62"/>
       <c r="I66" s="62"/>
@@ -15603,7 +15612,7 @@
       <c r="C67" s="62"/>
       <c r="D67" s="62"/>
       <c r="E67" s="63" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F67" s="63" t="s">
         <v>173</v>
@@ -15622,7 +15631,7 @@
         <v>174</v>
       </c>
       <c r="F68" s="83" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G68" s="62"/>
       <c r="H68" s="62"/>
@@ -15638,7 +15647,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G69" s="62"/>
       <c r="H69" s="62"/>
@@ -15654,7 +15663,7 @@
         <v>17</v>
       </c>
       <c r="F70" s="67" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G70" s="62"/>
       <c r="H70" s="62"/>
@@ -15670,7 +15679,7 @@
         <v>20</v>
       </c>
       <c r="F71" s="67" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G71" s="62"/>
       <c r="H71" s="62"/>
@@ -15686,7 +15695,7 @@
         <v>23</v>
       </c>
       <c r="F72" s="72" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G72" s="62"/>
       <c r="H72" s="62"/>
@@ -15722,10 +15731,10 @@
       <c r="B75" s="62"/>
       <c r="C75" s="62"/>
       <c r="D75" s="62"/>
-      <c r="E75" s="123" t="s">
-        <v>258</v>
-      </c>
-      <c r="F75" s="123"/>
+      <c r="E75" s="115" t="s">
+        <v>257</v>
+      </c>
+      <c r="F75" s="115"/>
       <c r="G75" s="62"/>
       <c r="H75" s="62"/>
       <c r="I75" s="62"/>
@@ -15737,7 +15746,7 @@
       <c r="C76" s="62"/>
       <c r="D76" s="62"/>
       <c r="E76" s="63" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F76" s="63" t="s">
         <v>173</v>
@@ -15756,7 +15765,7 @@
         <v>174</v>
       </c>
       <c r="F77" s="83" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G77" s="62"/>
       <c r="H77" s="62"/>
@@ -15772,7 +15781,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G78" s="62"/>
       <c r="H78" s="62"/>
@@ -15788,7 +15797,7 @@
         <v>17</v>
       </c>
       <c r="F79" s="67" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G79" s="62"/>
       <c r="H79" s="62"/>
@@ -15804,7 +15813,7 @@
         <v>20</v>
       </c>
       <c r="F80" s="67" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G80" s="62"/>
       <c r="H80" s="62"/>
@@ -15820,7 +15829,7 @@
         <v>23</v>
       </c>
       <c r="F81" s="72" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G81" s="62"/>
       <c r="H81" s="62"/>
@@ -15856,10 +15865,10 @@
       <c r="B84" s="62"/>
       <c r="C84" s="62"/>
       <c r="D84" s="62"/>
-      <c r="E84" s="123" t="s">
-        <v>259</v>
-      </c>
-      <c r="F84" s="123"/>
+      <c r="E84" s="115" t="s">
+        <v>258</v>
+      </c>
+      <c r="F84" s="115"/>
       <c r="G84" s="62"/>
       <c r="H84" s="62"/>
       <c r="I84" s="62"/>
@@ -15871,7 +15880,7 @@
       <c r="C85" s="62"/>
       <c r="D85" s="62"/>
       <c r="E85" s="63" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F85" s="63" t="s">
         <v>173</v>
@@ -15890,7 +15899,7 @@
         <v>174</v>
       </c>
       <c r="F86" s="83" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G86" s="62"/>
       <c r="H86" s="62"/>
@@ -15906,7 +15915,7 @@
         <v>0</v>
       </c>
       <c r="F87" s="71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G87" s="62"/>
       <c r="H87" s="62"/>
@@ -15922,7 +15931,7 @@
         <v>17</v>
       </c>
       <c r="F88" s="67" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G88" s="62"/>
       <c r="H88" s="62"/>
@@ -15938,7 +15947,7 @@
         <v>20</v>
       </c>
       <c r="F89" s="67" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G89" s="62"/>
       <c r="H89" s="62"/>
@@ -15954,7 +15963,7 @@
         <v>23</v>
       </c>
       <c r="F90" s="72" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G90" s="62"/>
       <c r="H90" s="62"/>
@@ -15990,10 +15999,10 @@
       <c r="B93" s="62"/>
       <c r="C93" s="62"/>
       <c r="D93" s="62"/>
-      <c r="E93" s="123" t="s">
-        <v>260</v>
-      </c>
-      <c r="F93" s="123"/>
+      <c r="E93" s="115" t="s">
+        <v>259</v>
+      </c>
+      <c r="F93" s="115"/>
       <c r="G93" s="62"/>
       <c r="H93" s="62"/>
       <c r="I93" s="62"/>
@@ -16005,7 +16014,7 @@
       <c r="C94" s="62"/>
       <c r="D94" s="62"/>
       <c r="E94" s="63" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F94" s="63" t="s">
         <v>173</v>
@@ -16024,7 +16033,7 @@
         <v>174</v>
       </c>
       <c r="F95" s="83" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G95" s="62"/>
       <c r="H95" s="62"/>
@@ -16040,7 +16049,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G96" s="62"/>
       <c r="H96" s="62"/>
@@ -16056,7 +16065,7 @@
         <v>17</v>
       </c>
       <c r="F97" s="67" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G97" s="62"/>
       <c r="H97" s="62"/>
@@ -16072,7 +16081,7 @@
         <v>20</v>
       </c>
       <c r="F98" s="67" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G98" s="62"/>
       <c r="H98" s="62"/>
@@ -16088,7 +16097,7 @@
         <v>23</v>
       </c>
       <c r="F99" s="72" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G99" s="62"/>
       <c r="H99" s="62"/>
@@ -16122,13 +16131,13 @@
     </row>
     <row r="102" spans="2:11" s="61" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B102" s="62"/>
-      <c r="C102" s="132" t="s">
-        <v>261</v>
-      </c>
-      <c r="D102" s="132"/>
-      <c r="E102" s="132"/>
-      <c r="F102" s="132"/>
-      <c r="G102" s="132"/>
+      <c r="C102" s="131" t="s">
+        <v>260</v>
+      </c>
+      <c r="D102" s="131"/>
+      <c r="E102" s="131"/>
+      <c r="F102" s="131"/>
+      <c r="G102" s="131"/>
       <c r="H102" s="62"/>
       <c r="I102" s="62"/>
       <c r="J102" s="62"/>
@@ -16136,11 +16145,11 @@
     </row>
     <row r="103" spans="2:11" s="61" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B103" s="62"/>
-      <c r="C103" s="104"/>
-      <c r="D103" s="104"/>
-      <c r="E103" s="104"/>
-      <c r="F103" s="104"/>
-      <c r="G103" s="104"/>
+      <c r="C103" s="103"/>
+      <c r="D103" s="103"/>
+      <c r="E103" s="103"/>
+      <c r="F103" s="103"/>
+      <c r="G103" s="103"/>
       <c r="H103" s="62"/>
       <c r="I103" s="62"/>
       <c r="J103" s="62"/>
@@ -16148,11 +16157,11 @@
     </row>
     <row r="104" spans="2:11" s="61" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B104" s="62"/>
-      <c r="C104" s="104"/>
-      <c r="D104" s="104"/>
-      <c r="E104" s="104"/>
-      <c r="F104" s="104"/>
-      <c r="G104" s="104"/>
+      <c r="C104" s="103"/>
+      <c r="D104" s="103"/>
+      <c r="E104" s="103"/>
+      <c r="F104" s="103"/>
+      <c r="G104" s="103"/>
       <c r="H104" s="62"/>
       <c r="I104" s="62"/>
       <c r="J104" s="62"/>
@@ -16160,11 +16169,11 @@
     </row>
     <row r="105" spans="2:11" s="61" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B105" s="62"/>
-      <c r="C105" s="104"/>
-      <c r="D105" s="104"/>
-      <c r="E105" s="104"/>
-      <c r="F105" s="104"/>
-      <c r="G105" s="104"/>
+      <c r="C105" s="103"/>
+      <c r="D105" s="103"/>
+      <c r="E105" s="103"/>
+      <c r="F105" s="103"/>
+      <c r="G105" s="103"/>
       <c r="H105" s="62"/>
       <c r="I105" s="62"/>
       <c r="J105" s="62"/>
@@ -16172,11 +16181,11 @@
     </row>
     <row r="106" spans="2:11" s="61" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B106" s="62"/>
-      <c r="C106" s="104"/>
-      <c r="D106" s="104"/>
-      <c r="E106" s="104"/>
-      <c r="F106" s="104"/>
-      <c r="G106" s="104"/>
+      <c r="C106" s="103"/>
+      <c r="D106" s="103"/>
+      <c r="E106" s="103"/>
+      <c r="F106" s="103"/>
+      <c r="G106" s="103"/>
       <c r="H106" s="62"/>
       <c r="I106" s="62"/>
       <c r="J106" s="62"/>
@@ -16184,11 +16193,11 @@
     </row>
     <row r="107" spans="2:11" s="61" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B107" s="62"/>
-      <c r="C107" s="105"/>
-      <c r="D107" s="105"/>
-      <c r="E107" s="105"/>
-      <c r="F107" s="105"/>
-      <c r="G107" s="105"/>
+      <c r="C107" s="104"/>
+      <c r="D107" s="104"/>
+      <c r="E107" s="104"/>
+      <c r="F107" s="104"/>
+      <c r="G107" s="104"/>
       <c r="H107" s="62"/>
       <c r="I107" s="62"/>
       <c r="J107" s="62"/>
@@ -16521,7 +16530,7 @@
     <row r="135" spans="2:11" s="61" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B135" s="62"/>
       <c r="C135" s="69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D135" s="62"/>
       <c r="E135" s="62"/>
@@ -16558,6 +16567,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C102:G107"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E93:F93"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="E66:F66"/>
     <mergeCell ref="E44:F44"/>
@@ -16569,11 +16583,6 @@
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="C102:G107"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E93:F93"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D11 D3:D7">
@@ -16595,7 +16604,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B3:P126"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
@@ -16612,12 +16621,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="102" t="s">
-        <v>202</v>
-      </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
+      <c r="B3" s="101" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
     </row>
     <row r="4" spans="2:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="2:10" ht="13.5" x14ac:dyDescent="0.2">
@@ -16644,24 +16653,24 @@
     </row>
     <row r="8" spans="2:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B8" s="42"/>
-      <c r="C8" s="106" t="s">
-        <v>213</v>
-      </c>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
+      <c r="C8" s="105" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
       <c r="H8" s="42"/>
       <c r="I8" s="42"/>
       <c r="J8" s="42"/>
     </row>
     <row r="9" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="42"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
       <c r="H9" s="42"/>
       <c r="I9" s="42"/>
       <c r="J9" s="42"/>
@@ -16690,79 +16699,79 @@
     </row>
     <row r="12" spans="2:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B12" s="42"/>
-      <c r="C12" s="132" t="s">
-        <v>203</v>
-      </c>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
+      <c r="C12" s="131" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
       <c r="H12" s="42"/>
       <c r="I12" s="42"/>
       <c r="J12" s="42"/>
     </row>
     <row r="13" spans="2:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B13" s="42"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
       <c r="H13" s="42"/>
       <c r="I13" s="42"/>
       <c r="J13" s="42"/>
     </row>
     <row r="14" spans="2:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B14" s="42"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
       <c r="H14" s="42"/>
       <c r="I14" s="42"/>
       <c r="J14" s="42"/>
     </row>
     <row r="15" spans="2:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B15" s="42"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
       <c r="H15" s="42"/>
       <c r="I15" s="42"/>
       <c r="J15" s="42"/>
     </row>
     <row r="16" spans="2:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B16" s="42"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
       <c r="H16" s="42"/>
       <c r="I16" s="42"/>
       <c r="J16" s="42"/>
     </row>
     <row r="17" spans="2:16" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B17" s="42"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
       <c r="H17" s="42"/>
       <c r="I17" s="42"/>
       <c r="J17" s="42"/>
     </row>
     <row r="18" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="42"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
       <c r="H18" s="42"/>
       <c r="I18" s="42"/>
       <c r="J18" s="42"/>
@@ -16791,14 +16800,14 @@
     </row>
     <row r="21" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="42"/>
-      <c r="C21" s="135" t="s">
-        <v>205</v>
-      </c>
-      <c r="D21" s="135"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="135"/>
+      <c r="C21" s="134" t="s">
+        <v>204</v>
+      </c>
+      <c r="D21" s="134"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="134"/>
+      <c r="H21" s="134"/>
       <c r="I21" s="42"/>
       <c r="J21" s="42"/>
       <c r="M21" s="43"/>
@@ -16929,14 +16938,14 @@
     </row>
     <row r="29" spans="2:16" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B29" s="42"/>
-      <c r="C29" s="136" t="s">
-        <v>206</v>
-      </c>
-      <c r="D29" s="136"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="136"/>
-      <c r="G29" s="136"/>
-      <c r="H29" s="136"/>
+      <c r="C29" s="135" t="s">
+        <v>205</v>
+      </c>
+      <c r="D29" s="135"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="135"/>
+      <c r="G29" s="135"/>
+      <c r="H29" s="135"/>
       <c r="I29" s="42"/>
       <c r="J29" s="42"/>
     </row>
@@ -17063,10 +17072,10 @@
     </row>
     <row r="37" spans="2:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B37" s="42"/>
-      <c r="C37" s="135" t="s">
-        <v>207</v>
-      </c>
-      <c r="D37" s="135"/>
+      <c r="C37" s="134" t="s">
+        <v>206</v>
+      </c>
+      <c r="D37" s="134"/>
       <c r="E37" s="42"/>
       <c r="F37" s="42"/>
       <c r="G37" s="42"/>
@@ -18013,13 +18022,13 @@
     </row>
     <row r="101" spans="2:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B101" s="42"/>
-      <c r="C101" s="133" t="s">
-        <v>204</v>
-      </c>
-      <c r="D101" s="133"/>
-      <c r="E101" s="133"/>
-      <c r="F101" s="133"/>
-      <c r="G101" s="133"/>
+      <c r="C101" s="132" t="s">
+        <v>203</v>
+      </c>
+      <c r="D101" s="132"/>
+      <c r="E101" s="132"/>
+      <c r="F101" s="132"/>
+      <c r="G101" s="132"/>
       <c r="H101" s="42"/>
       <c r="I101" s="42"/>
       <c r="J101" s="42"/>
@@ -18048,10 +18057,10 @@
     </row>
     <row r="104" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B104" s="42"/>
-      <c r="C104" s="134" t="s">
-        <v>208</v>
-      </c>
-      <c r="D104" s="134"/>
+      <c r="C104" s="133" t="s">
+        <v>207</v>
+      </c>
+      <c r="D104" s="133"/>
       <c r="E104" s="47"/>
       <c r="F104" s="42"/>
       <c r="G104" s="42"/>
@@ -18100,10 +18109,10 @@
     </row>
     <row r="108" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B108" s="42"/>
-      <c r="C108" s="134" t="s">
-        <v>209</v>
-      </c>
-      <c r="D108" s="134"/>
+      <c r="C108" s="133" t="s">
+        <v>208</v>
+      </c>
+      <c r="D108" s="133"/>
       <c r="E108" s="47"/>
       <c r="F108" s="42"/>
       <c r="G108" s="42"/>
@@ -18152,10 +18161,10 @@
     </row>
     <row r="112" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B112" s="42"/>
-      <c r="C112" s="134" t="s">
-        <v>210</v>
-      </c>
-      <c r="D112" s="134"/>
+      <c r="C112" s="133" t="s">
+        <v>209</v>
+      </c>
+      <c r="D112" s="133"/>
       <c r="E112" s="47"/>
       <c r="F112" s="42"/>
       <c r="G112" s="42"/>
@@ -18219,10 +18228,10 @@
     </row>
     <row r="117" spans="2:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B117" s="42"/>
-      <c r="C117" s="134" t="s">
-        <v>211</v>
-      </c>
-      <c r="D117" s="134"/>
+      <c r="C117" s="133" t="s">
+        <v>210</v>
+      </c>
+      <c r="D117" s="133"/>
       <c r="E117" s="47"/>
       <c r="F117" s="42"/>
       <c r="G117" s="42"/>
